--- a/GestionProjet/Gantt.xlsx
+++ b/GestionProjet/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84EA2C43-3FBA-AF45-BA50-CA5B514AD052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A4A93-93FE-8048-A6FA-C92ADCA01380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="86">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -118,21 +118,6 @@
   </si>
   <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
   </si>
   <si>
     <t>Insert new rows ABOVE this one</t>
@@ -255,37 +240,103 @@
     <t>Maquette conceptuelle du produit</t>
   </si>
   <si>
-    <t>Choisir le LLM utilisé</t>
-  </si>
-  <si>
-    <t>Communication entre le back-end et le front-end</t>
-  </si>
-  <si>
-    <t>Achiraf</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Choix techniques et division du travail</t>
-  </si>
-  <si>
     <t>Concevoir un GANTT pour la réalisation</t>
   </si>
   <si>
     <t>Choix des outils technologiques pour le produit</t>
   </si>
   <si>
-    <t>Exemple de communication front-back (Flask)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratégie marketing </t>
-  </si>
-  <si>
     <t xml:space="preserve">Vieille technologique </t>
   </si>
   <si>
-    <t>Développement initial et communication front-back</t>
+    <t>Choix techniques et gestion de projet</t>
+  </si>
+  <si>
+    <t>Division du devloppement</t>
+  </si>
+  <si>
+    <t>Développement Front-End</t>
+  </si>
+  <si>
+    <t>Choix d'une direction artistique</t>
+  </si>
+  <si>
+    <t>Création des pages souhaitées</t>
+  </si>
+  <si>
+    <t>Navigation dans l'application</t>
+  </si>
+  <si>
+    <t>Création d'un serveur Node.js (Lecture/Ecriture)</t>
+  </si>
+  <si>
+    <t>Création des composants ReactJS</t>
+  </si>
+  <si>
+    <t>Développement du Back-End</t>
+  </si>
+  <si>
+    <t>Choix du LLM</t>
+  </si>
+  <si>
+    <t>Création d'un serveur RestFull</t>
+  </si>
+  <si>
+    <t>Communication avec le LLM (Prompt Enginering)</t>
+  </si>
+  <si>
+    <t>Communication avec le serveur Node</t>
+  </si>
+  <si>
+    <t>Résilience des processus</t>
+  </si>
+  <si>
+    <t>POC1</t>
+  </si>
+  <si>
+    <t>Expérience utilisateur</t>
+  </si>
+  <si>
+    <t>Estimer le niveau physique de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Tutoriel pour les exercices de musculations</t>
+  </si>
+  <si>
+    <t>Scapping des GIFS</t>
+  </si>
+  <si>
+    <t>Vectorialiser nos utilisateurs</t>
+  </si>
+  <si>
+    <t>POC futur</t>
+  </si>
+  <si>
+    <t>Réaliser une campagne Marketing</t>
+  </si>
+  <si>
+    <t>Creation de session / Gestion mulit-utilisateurs</t>
+  </si>
+  <si>
+    <t>Integrer le modèle GPT à l'application</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Rassembler les recherches</t>
+  </si>
+  <si>
+    <t>Prioriser des tâches</t>
+  </si>
+  <si>
+    <t>Ajouts des elements manquants (par defaut)</t>
+  </si>
+  <si>
+    <t>Diaporama</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -570,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,12 +875,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1029,6 +1140,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1101,7 +1238,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1348,6 +1485,87 @@
     <xf numFmtId="170" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="46" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="47" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="48" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="48" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="49" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="49" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="49" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="49" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="50" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="50" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1366,8 +1584,78 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="51" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="51" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="51" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="51" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="51" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="51" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="52" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="52" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="54" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="54" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="54" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="55" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="55" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="55" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="55" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1426,7 +1714,277 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1553,15 +2111,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="totalRow" dxfId="36"/>
+      <tableStyleElement type="firstColumn" dxfId="35"/>
+      <tableStyleElement type="lastColumn" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="31"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1632,11 +2190,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="FF215881"/>
-      <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
+      <color rgb="FF215881"/>
+      <color rgb="FF42648A"/>
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
       <color rgb="FF3969AD"/>
@@ -1976,11 +2534,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL37"/>
+  <dimension ref="A1:DB55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1993,146 +2551,207 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="9" max="106" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E1" s="4"/>
       <c r="F1" s="34"/>
       <c r="H1" s="2"/>
       <c r="I1" s="67" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I2" s="68" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="91">
+        <v>41</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="118">
         <v>45541</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="93"/>
+      <c r="C4" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="120"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="115">
         <f>I5</f>
         <v>45537</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="115">
         <f>P5</f>
         <v>45544</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="115">
         <f>W5</f>
         <v>45551</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="115">
         <f>AD5</f>
         <v>45558</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="115">
         <f>AK5</f>
         <v>45565</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="115">
         <f>AR5</f>
         <v>45572</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="115">
         <f>AY5</f>
         <v>45579</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="115">
         <f>BF5</f>
         <v>45586</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="116"/>
+      <c r="BK4" s="116"/>
+      <c r="BL4" s="117"/>
+      <c r="BM4" s="115">
+        <f>BM5</f>
+        <v>45593</v>
+      </c>
+      <c r="BN4" s="116"/>
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="116"/>
+      <c r="BQ4" s="116"/>
+      <c r="BR4" s="116"/>
+      <c r="BS4" s="117"/>
+      <c r="BT4" s="115">
+        <f>BT5</f>
+        <v>45600</v>
+      </c>
+      <c r="BU4" s="116"/>
+      <c r="BV4" s="116"/>
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="116"/>
+      <c r="BY4" s="116"/>
+      <c r="BZ4" s="117"/>
+      <c r="CA4" s="115">
+        <f>CA5</f>
+        <v>45607</v>
+      </c>
+      <c r="CB4" s="116"/>
+      <c r="CC4" s="116"/>
+      <c r="CD4" s="116"/>
+      <c r="CE4" s="116"/>
+      <c r="CF4" s="116"/>
+      <c r="CG4" s="117"/>
+      <c r="CH4" s="115">
+        <f>CH5</f>
+        <v>45614</v>
+      </c>
+      <c r="CI4" s="116"/>
+      <c r="CJ4" s="116"/>
+      <c r="CK4" s="116"/>
+      <c r="CL4" s="116"/>
+      <c r="CM4" s="116"/>
+      <c r="CN4" s="117"/>
+      <c r="CO4" s="115">
+        <f>CO5</f>
+        <v>45621</v>
+      </c>
+      <c r="CP4" s="116"/>
+      <c r="CQ4" s="116"/>
+      <c r="CR4" s="116"/>
+      <c r="CS4" s="116"/>
+      <c r="CT4" s="116"/>
+      <c r="CU4" s="117"/>
+      <c r="CV4" s="115">
+        <f>CV5</f>
+        <v>45628</v>
+      </c>
+      <c r="CW4" s="116"/>
+      <c r="CX4" s="116"/>
+      <c r="CY4" s="116"/>
+      <c r="CZ4" s="116"/>
+      <c r="DA4" s="116"/>
+      <c r="DB4" s="117"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
@@ -2310,31 +2929,31 @@
         <f t="shared" si="0"/>
         <v>45578</v>
       </c>
-      <c r="AY5" s="85">
+      <c r="AY5" s="129">
         <f>AX5+1</f>
         <v>45579</v>
       </c>
-      <c r="AZ5" s="86">
+      <c r="AZ5" s="130">
         <f>AY5+1</f>
         <v>45580</v>
       </c>
-      <c r="BA5" s="86">
+      <c r="BA5" s="130">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45581</v>
       </c>
-      <c r="BB5" s="86">
+      <c r="BB5" s="130">
         <f t="shared" si="1"/>
         <v>45582</v>
       </c>
-      <c r="BC5" s="86">
+      <c r="BC5" s="130">
         <f t="shared" si="1"/>
         <v>45583</v>
       </c>
-      <c r="BD5" s="86">
+      <c r="BD5" s="130">
         <f t="shared" si="1"/>
         <v>45584</v>
       </c>
-      <c r="BE5" s="87">
+      <c r="BE5" s="131">
         <f t="shared" si="1"/>
         <v>45585</v>
       </c>
@@ -2366,8 +2985,176 @@
         <f t="shared" si="2"/>
         <v>45592</v>
       </c>
+      <c r="BM5" s="85">
+        <f>BL5+1</f>
+        <v>45593</v>
+      </c>
+      <c r="BN5" s="86">
+        <f>BM5+1</f>
+        <v>45594</v>
+      </c>
+      <c r="BO5" s="86">
+        <f t="shared" ref="BO5" si="3">BN5+1</f>
+        <v>45595</v>
+      </c>
+      <c r="BP5" s="86">
+        <f t="shared" ref="BP5" si="4">BO5+1</f>
+        <v>45596</v>
+      </c>
+      <c r="BQ5" s="86">
+        <f t="shared" ref="BQ5" si="5">BP5+1</f>
+        <v>45597</v>
+      </c>
+      <c r="BR5" s="86">
+        <f t="shared" ref="BR5" si="6">BQ5+1</f>
+        <v>45598</v>
+      </c>
+      <c r="BS5" s="87">
+        <f t="shared" ref="BS5" si="7">BR5+1</f>
+        <v>45599</v>
+      </c>
+      <c r="BT5" s="85">
+        <f>BS5+1</f>
+        <v>45600</v>
+      </c>
+      <c r="BU5" s="86">
+        <f>BT5+1</f>
+        <v>45601</v>
+      </c>
+      <c r="BV5" s="86">
+        <f t="shared" ref="BV5" si="8">BU5+1</f>
+        <v>45602</v>
+      </c>
+      <c r="BW5" s="86">
+        <f t="shared" ref="BW5" si="9">BV5+1</f>
+        <v>45603</v>
+      </c>
+      <c r="BX5" s="86">
+        <f t="shared" ref="BX5" si="10">BW5+1</f>
+        <v>45604</v>
+      </c>
+      <c r="BY5" s="86">
+        <f t="shared" ref="BY5" si="11">BX5+1</f>
+        <v>45605</v>
+      </c>
+      <c r="BZ5" s="87">
+        <f t="shared" ref="BZ5" si="12">BY5+1</f>
+        <v>45606</v>
+      </c>
+      <c r="CA5" s="85">
+        <f>BZ5+1</f>
+        <v>45607</v>
+      </c>
+      <c r="CB5" s="86">
+        <f>CA5+1</f>
+        <v>45608</v>
+      </c>
+      <c r="CC5" s="86">
+        <f t="shared" ref="CC5" si="13">CB5+1</f>
+        <v>45609</v>
+      </c>
+      <c r="CD5" s="86">
+        <f t="shared" ref="CD5" si="14">CC5+1</f>
+        <v>45610</v>
+      </c>
+      <c r="CE5" s="86">
+        <f t="shared" ref="CE5" si="15">CD5+1</f>
+        <v>45611</v>
+      </c>
+      <c r="CF5" s="86">
+        <f t="shared" ref="CF5" si="16">CE5+1</f>
+        <v>45612</v>
+      </c>
+      <c r="CG5" s="87">
+        <f t="shared" ref="CG5" si="17">CF5+1</f>
+        <v>45613</v>
+      </c>
+      <c r="CH5" s="85">
+        <f>CG5+1</f>
+        <v>45614</v>
+      </c>
+      <c r="CI5" s="86">
+        <f>CH5+1</f>
+        <v>45615</v>
+      </c>
+      <c r="CJ5" s="86">
+        <f t="shared" ref="CJ5" si="18">CI5+1</f>
+        <v>45616</v>
+      </c>
+      <c r="CK5" s="86">
+        <f t="shared" ref="CK5" si="19">CJ5+1</f>
+        <v>45617</v>
+      </c>
+      <c r="CL5" s="86">
+        <f t="shared" ref="CL5" si="20">CK5+1</f>
+        <v>45618</v>
+      </c>
+      <c r="CM5" s="86">
+        <f t="shared" ref="CM5" si="21">CL5+1</f>
+        <v>45619</v>
+      </c>
+      <c r="CN5" s="87">
+        <f t="shared" ref="CN5" si="22">CM5+1</f>
+        <v>45620</v>
+      </c>
+      <c r="CO5" s="85">
+        <f>CN5+1</f>
+        <v>45621</v>
+      </c>
+      <c r="CP5" s="86">
+        <f>CO5+1</f>
+        <v>45622</v>
+      </c>
+      <c r="CQ5" s="86">
+        <f t="shared" ref="CQ5" si="23">CP5+1</f>
+        <v>45623</v>
+      </c>
+      <c r="CR5" s="86">
+        <f t="shared" ref="CR5" si="24">CQ5+1</f>
+        <v>45624</v>
+      </c>
+      <c r="CS5" s="86">
+        <f t="shared" ref="CS5" si="25">CR5+1</f>
+        <v>45625</v>
+      </c>
+      <c r="CT5" s="86">
+        <f t="shared" ref="CT5" si="26">CS5+1</f>
+        <v>45626</v>
+      </c>
+      <c r="CU5" s="87">
+        <f t="shared" ref="CU5" si="27">CT5+1</f>
+        <v>45627</v>
+      </c>
+      <c r="CV5" s="85">
+        <f>CU5+1</f>
+        <v>45628</v>
+      </c>
+      <c r="CW5" s="86">
+        <f>CV5+1</f>
+        <v>45629</v>
+      </c>
+      <c r="CX5" s="86">
+        <f t="shared" ref="CX5" si="28">CW5+1</f>
+        <v>45630</v>
+      </c>
+      <c r="CY5" s="86">
+        <f t="shared" ref="CY5" si="29">CX5+1</f>
+        <v>45631</v>
+      </c>
+      <c r="CZ5" s="130">
+        <f t="shared" ref="CZ5" si="30">CY5+1</f>
+        <v>45632</v>
+      </c>
+      <c r="DA5" s="86">
+        <f t="shared" ref="DA5" si="31">CZ5+1</f>
+        <v>45633</v>
+      </c>
+      <c r="DB5" s="87">
+        <f t="shared" ref="DB5" si="32">DA5+1</f>
+        <v>45634</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -2375,247 +3162,415 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="33">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="34">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>W</v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="M6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>F</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="O6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="P6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>M</v>
       </c>
       <c r="Q6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="R6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>W</v>
       </c>
       <c r="S6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="T6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>F</v>
       </c>
       <c r="U6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="V6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="W6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>M</v>
       </c>
       <c r="X6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="Y6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>W</v>
       </c>
       <c r="Z6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="AA6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>F</v>
       </c>
       <c r="AB6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="AD6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>M</v>
       </c>
       <c r="AE6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="AF6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>W</v>
       </c>
       <c r="AG6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>F</v>
       </c>
       <c r="AI6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="AK6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>M</v>
       </c>
       <c r="AL6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="AM6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>W</v>
       </c>
       <c r="AN6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>T</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>F</v>
       </c>
       <c r="AP6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>S</v>
       </c>
       <c r="AR6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="34"/>
         <v>M</v>
       </c>
       <c r="AS6" s="10" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" si="35">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>W</v>
       </c>
       <c r="AU6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>T</v>
       </c>
       <c r="AV6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>F</v>
       </c>
       <c r="AW6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>S</v>
       </c>
       <c r="AX6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="10" t="str">
-        <f t="shared" si="5"/>
+      <c r="AY6" s="132" t="str">
+        <f t="shared" si="35"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="10" t="str">
-        <f t="shared" si="5"/>
+      <c r="AZ6" s="132" t="str">
+        <f t="shared" si="35"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="10" t="str">
-        <f t="shared" si="5"/>
+      <c r="BA6" s="132" t="str">
+        <f t="shared" si="35"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="10" t="str">
-        <f t="shared" si="5"/>
+      <c r="BB6" s="132" t="str">
+        <f t="shared" si="35"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="10" t="str">
-        <f t="shared" si="5"/>
+      <c r="BC6" s="132" t="str">
+        <f t="shared" si="35"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="10" t="str">
-        <f t="shared" si="5"/>
+      <c r="BD6" s="132" t="str">
+        <f t="shared" si="35"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="10" t="str">
-        <f t="shared" si="5"/>
+      <c r="BE6" s="132" t="str">
+        <f t="shared" si="35"/>
         <v>S</v>
       </c>
       <c r="BF6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>M</v>
       </c>
       <c r="BG6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>T</v>
       </c>
       <c r="BH6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>W</v>
       </c>
       <c r="BI6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>F</v>
       </c>
       <c r="BK6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>S</v>
       </c>
       <c r="BL6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="35"/>
         <v>S</v>
       </c>
+      <c r="BM6" s="10" t="str">
+        <f t="shared" ref="BM6:BZ6" si="36">LEFT(TEXT(BM5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="BN6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="BO6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>W</v>
+      </c>
+      <c r="BP6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="BQ6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>F</v>
+      </c>
+      <c r="BR6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="BS6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="BT6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>M</v>
+      </c>
+      <c r="BU6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="BV6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>W</v>
+      </c>
+      <c r="BW6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>T</v>
+      </c>
+      <c r="BX6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>F</v>
+      </c>
+      <c r="BY6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="BZ6" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>S</v>
+      </c>
+      <c r="CA6" s="10" t="str">
+        <f t="shared" ref="CA6:CU6" si="37">LEFT(TEXT(CA5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="CB6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>T</v>
+      </c>
+      <c r="CC6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>W</v>
+      </c>
+      <c r="CD6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>T</v>
+      </c>
+      <c r="CE6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>F</v>
+      </c>
+      <c r="CF6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>S</v>
+      </c>
+      <c r="CG6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>S</v>
+      </c>
+      <c r="CH6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>M</v>
+      </c>
+      <c r="CI6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>T</v>
+      </c>
+      <c r="CJ6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>W</v>
+      </c>
+      <c r="CK6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>T</v>
+      </c>
+      <c r="CL6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>F</v>
+      </c>
+      <c r="CM6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>S</v>
+      </c>
+      <c r="CN6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>S</v>
+      </c>
+      <c r="CO6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>M</v>
+      </c>
+      <c r="CP6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>T</v>
+      </c>
+      <c r="CQ6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>W</v>
+      </c>
+      <c r="CR6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>T</v>
+      </c>
+      <c r="CS6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>F</v>
+      </c>
+      <c r="CT6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>S</v>
+      </c>
+      <c r="CU6" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>S</v>
+      </c>
+      <c r="CV6" s="10" t="str">
+        <f t="shared" ref="CV6:DB6" si="38">LEFT(TEXT(CV5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="CW6" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>T</v>
+      </c>
+      <c r="CX6" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>W</v>
+      </c>
+      <c r="CY6" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>T</v>
+      </c>
+      <c r="CZ6" s="132" t="str">
+        <f t="shared" si="38"/>
+        <v>F</v>
+      </c>
+      <c r="DA6" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>S</v>
+      </c>
+      <c r="DB6" s="10" t="str">
+        <f t="shared" si="38"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -2667,13 +3622,13 @@
       <c r="AV7" s="31"/>
       <c r="AW7" s="31"/>
       <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="31"/>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="31"/>
-      <c r="BE7" s="31"/>
+      <c r="AY7" s="133"/>
+      <c r="AZ7" s="133"/>
+      <c r="BA7" s="133"/>
+      <c r="BB7" s="133"/>
+      <c r="BC7" s="133"/>
+      <c r="BD7" s="133"/>
+      <c r="BE7" s="133"/>
       <c r="BF7" s="31"/>
       <c r="BG7" s="31"/>
       <c r="BH7" s="31"/>
@@ -2681,13 +3636,55 @@
       <c r="BJ7" s="31"/>
       <c r="BK7" s="31"/>
       <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="31"/>
+      <c r="BO7" s="31"/>
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="31"/>
+      <c r="BR7" s="31"/>
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="31"/>
+      <c r="BU7" s="31"/>
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="31"/>
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="31"/>
+      <c r="CD7" s="31"/>
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="31"/>
+      <c r="CG7" s="31"/>
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="31"/>
+      <c r="CJ7" s="31"/>
+      <c r="CK7" s="31"/>
+      <c r="CL7" s="31"/>
+      <c r="CM7" s="31"/>
+      <c r="CN7" s="31"/>
+      <c r="CO7" s="31"/>
+      <c r="CP7" s="31"/>
+      <c r="CQ7" s="31"/>
+      <c r="CR7" s="31"/>
+      <c r="CS7" s="31"/>
+      <c r="CT7" s="31"/>
+      <c r="CU7" s="31"/>
+      <c r="CV7" s="31"/>
+      <c r="CW7" s="31"/>
+      <c r="CX7" s="31"/>
+      <c r="CY7" s="31"/>
+      <c r="CZ7" s="133"/>
+      <c r="DA7" s="31"/>
+      <c r="DB7" s="31"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
@@ -2695,7 +3692,7 @@
       <c r="F8" s="71"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H34" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H52" si="39">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2740,13 +3737,27 @@
       <c r="AV8" s="31"/>
       <c r="AW8" s="31"/>
       <c r="AX8" s="31"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31"/>
-      <c r="BB8" s="31"/>
-      <c r="BC8" s="31"/>
-      <c r="BD8" s="31"/>
-      <c r="BE8" s="31"/>
+      <c r="AY8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD8" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE8" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF8" s="31"/>
       <c r="BG8" s="31"/>
       <c r="BH8" s="31"/>
@@ -2754,20 +3765,62 @@
       <c r="BJ8" s="31"/>
       <c r="BK8" s="31"/>
       <c r="BL8" s="31"/>
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="31"/>
+      <c r="BO8" s="31"/>
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="31"/>
+      <c r="BR8" s="31"/>
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="31"/>
+      <c r="BU8" s="31"/>
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="31"/>
+      <c r="BX8" s="31"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="31"/>
+      <c r="CA8" s="31"/>
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="31"/>
+      <c r="CD8" s="31"/>
+      <c r="CE8" s="31"/>
+      <c r="CF8" s="31"/>
+      <c r="CG8" s="31"/>
+      <c r="CH8" s="31"/>
+      <c r="CI8" s="31"/>
+      <c r="CJ8" s="31"/>
+      <c r="CK8" s="31"/>
+      <c r="CL8" s="31"/>
+      <c r="CM8" s="31"/>
+      <c r="CN8" s="31"/>
+      <c r="CO8" s="31"/>
+      <c r="CP8" s="31"/>
+      <c r="CQ8" s="31"/>
+      <c r="CR8" s="31"/>
+      <c r="CS8" s="31"/>
+      <c r="CT8" s="31"/>
+      <c r="CU8" s="31"/>
+      <c r="CV8" s="31"/>
+      <c r="CW8" s="31"/>
+      <c r="CX8" s="31"/>
+      <c r="CY8" s="31"/>
+      <c r="CZ8" s="133"/>
+      <c r="DA8" s="31"/>
+      <c r="DB8" s="31"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="72">
-        <f>Project_Start</f>
+        <f t="shared" ref="E9:E13" si="40">Project_Start</f>
         <v>45541</v>
       </c>
       <c r="F9" s="72">
@@ -2776,7 +3829,7 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I9" s="31"/>
@@ -2821,13 +3874,27 @@
       <c r="AV9" s="31"/>
       <c r="AW9" s="31"/>
       <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31"/>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
+      <c r="AY9" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA9" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB9" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC9" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD9" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE9" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF9" s="31"/>
       <c r="BG9" s="31"/>
       <c r="BH9" s="31"/>
@@ -2835,30 +3902,71 @@
       <c r="BJ9" s="31"/>
       <c r="BK9" s="31"/>
       <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31"/>
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31"/>
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31"/>
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31"/>
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="31"/>
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="31"/>
+      <c r="CI9" s="31"/>
+      <c r="CJ9" s="31"/>
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="31"/>
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
+      <c r="CP9" s="31"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="31"/>
+      <c r="CS9" s="31"/>
+      <c r="CT9" s="31"/>
+      <c r="CU9" s="31"/>
+      <c r="CV9" s="31"/>
+      <c r="CW9" s="31"/>
+      <c r="CX9" s="31"/>
+      <c r="CY9" s="31"/>
+      <c r="CZ9" s="133"/>
+      <c r="DA9" s="31"/>
+      <c r="DB9" s="31"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="17">
         <v>1</v>
       </c>
       <c r="E10" s="72">
-        <f>Project_Start</f>
+        <f t="shared" si="40"/>
         <v>45541</v>
       </c>
       <c r="F10" s="72">
-        <f>E10+6</f>
-        <v>45547</v>
+        <v>45555</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f t="shared" si="39"/>
+        <v>15</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
@@ -2902,13 +4010,27 @@
       <c r="AV10" s="31"/>
       <c r="AW10" s="31"/>
       <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="31"/>
-      <c r="BE10" s="31"/>
+      <c r="AY10" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ10" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA10" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB10" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC10" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD10" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE10" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF10" s="31"/>
       <c r="BG10" s="31"/>
       <c r="BH10" s="31"/>
@@ -2916,28 +4038,69 @@
       <c r="BJ10" s="31"/>
       <c r="BK10" s="31"/>
       <c r="BL10" s="31"/>
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="31"/>
+      <c r="BO10" s="31"/>
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="31"/>
+      <c r="BR10" s="31"/>
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="31"/>
+      <c r="BU10" s="31"/>
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="31"/>
+      <c r="CA10" s="31"/>
+      <c r="CB10" s="31"/>
+      <c r="CC10" s="31"/>
+      <c r="CD10" s="31"/>
+      <c r="CE10" s="31"/>
+      <c r="CF10" s="31"/>
+      <c r="CG10" s="31"/>
+      <c r="CH10" s="31"/>
+      <c r="CI10" s="31"/>
+      <c r="CJ10" s="31"/>
+      <c r="CK10" s="31"/>
+      <c r="CL10" s="31"/>
+      <c r="CM10" s="31"/>
+      <c r="CN10" s="31"/>
+      <c r="CO10" s="31"/>
+      <c r="CP10" s="31"/>
+      <c r="CQ10" s="31"/>
+      <c r="CR10" s="31"/>
+      <c r="CS10" s="31"/>
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="31"/>
+      <c r="CV10" s="31"/>
+      <c r="CW10" s="31"/>
+      <c r="CX10" s="31"/>
+      <c r="CY10" s="31"/>
+      <c r="CZ10" s="133"/>
+      <c r="DA10" s="31"/>
+      <c r="DB10" s="31"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="72">
-        <f>Project_Start</f>
+        <f t="shared" si="40"/>
         <v>45541</v>
       </c>
       <c r="F11" s="72">
-        <f>E11+4</f>
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="39"/>
+        <v>8</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
@@ -2981,13 +4144,27 @@
       <c r="AV11" s="31"/>
       <c r="AW11" s="31"/>
       <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31"/>
+      <c r="AY11" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ11" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA11" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB11" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC11" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD11" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE11" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF11" s="31"/>
       <c r="BG11" s="31"/>
       <c r="BH11" s="31"/>
@@ -2995,28 +4172,69 @@
       <c r="BJ11" s="31"/>
       <c r="BK11" s="31"/>
       <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="31"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="31"/>
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="31"/>
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="31"/>
+      <c r="CJ11" s="31"/>
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="31"/>
+      <c r="CM11" s="31"/>
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="31"/>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="31"/>
+      <c r="CS11" s="31"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="31"/>
+      <c r="CV11" s="31"/>
+      <c r="CW11" s="31"/>
+      <c r="CX11" s="31"/>
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="133"/>
+      <c r="DA11" s="31"/>
+      <c r="DB11" s="31"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="72">
-        <f>Project_Start</f>
+        <f t="shared" si="40"/>
         <v>45541</v>
       </c>
       <c r="F12" s="72">
-        <f>E12+5</f>
-        <v>45546</v>
+        <v>45548</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="39"/>
+        <v>8</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -3060,13 +4278,27 @@
       <c r="AV12" s="31"/>
       <c r="AW12" s="31"/>
       <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="31"/>
+      <c r="AY12" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ12" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA12" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB12" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC12" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD12" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE12" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF12" s="31"/>
       <c r="BG12" s="31"/>
       <c r="BH12" s="31"/>
@@ -3074,23 +4306,64 @@
       <c r="BJ12" s="31"/>
       <c r="BK12" s="31"/>
       <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="31"/>
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="31"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="31"/>
+      <c r="CG12" s="31"/>
+      <c r="CH12" s="31"/>
+      <c r="CI12" s="31"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="31"/>
+      <c r="CP12" s="31"/>
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="31"/>
+      <c r="CS12" s="31"/>
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="31"/>
+      <c r="CV12" s="31"/>
+      <c r="CW12" s="31"/>
+      <c r="CX12" s="31"/>
+      <c r="CY12" s="31"/>
+      <c r="CZ12" s="133"/>
+      <c r="DA12" s="31"/>
+      <c r="DB12" s="31"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="17">
         <v>1</v>
       </c>
       <c r="E13" s="72">
-        <f>Project_Start</f>
+        <f t="shared" si="40"/>
         <v>45541</v>
       </c>
       <c r="F13" s="72">
-        <f>Project_Start</f>
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3136,13 +4409,27 @@
       <c r="AV13" s="31"/>
       <c r="AW13" s="31"/>
       <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
+      <c r="AY13" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ13" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA13" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB13" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC13" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD13" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE13" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF13" s="31"/>
       <c r="BG13" s="31"/>
       <c r="BH13" s="31"/>
@@ -3150,28 +4437,64 @@
       <c r="BJ13" s="31"/>
       <c r="BK13" s="31"/>
       <c r="BL13" s="31"/>
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="31"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="31"/>
+      <c r="CA13" s="31"/>
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="31"/>
+      <c r="CD13" s="31"/>
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="31"/>
+      <c r="CG13" s="31"/>
+      <c r="CH13" s="31"/>
+      <c r="CI13" s="31"/>
+      <c r="CJ13" s="31"/>
+      <c r="CK13" s="31"/>
+      <c r="CL13" s="31"/>
+      <c r="CM13" s="31"/>
+      <c r="CN13" s="31"/>
+      <c r="CO13" s="31"/>
+      <c r="CP13" s="31"/>
+      <c r="CQ13" s="31"/>
+      <c r="CR13" s="31"/>
+      <c r="CS13" s="31"/>
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="31"/>
+      <c r="CV13" s="31"/>
+      <c r="CW13" s="31"/>
+      <c r="CX13" s="31"/>
+      <c r="CY13" s="31"/>
+      <c r="CZ13" s="133"/>
+      <c r="DA13" s="31"/>
+      <c r="DB13" s="31"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="72">
-        <f>Project_Start</f>
-        <v>45541</v>
-      </c>
-      <c r="F14" s="72">
-        <f>E14+7</f>
-        <v>45548</v>
-      </c>
+    <row r="14" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14">
-        <f t="shared" si="6"/>
-        <v>8</v>
+      <c r="H14" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v/>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
@@ -3215,13 +4538,27 @@
       <c r="AV14" s="31"/>
       <c r="AW14" s="31"/>
       <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="31"/>
-      <c r="BB14" s="31"/>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31"/>
+      <c r="AY14" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ14" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA14" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB14" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC14" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD14" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE14" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF14" s="31"/>
       <c r="BG14" s="31"/>
       <c r="BH14" s="31"/>
@@ -3229,22 +4566,68 @@
       <c r="BJ14" s="31"/>
       <c r="BK14" s="31"/>
       <c r="BL14" s="31"/>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="31"/>
+      <c r="BO14" s="31"/>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="31"/>
+      <c r="BU14" s="31"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="31"/>
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="31"/>
+      <c r="CD14" s="31"/>
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="31"/>
+      <c r="CG14" s="31"/>
+      <c r="CH14" s="31"/>
+      <c r="CI14" s="31"/>
+      <c r="CJ14" s="31"/>
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="31"/>
+      <c r="CM14" s="31"/>
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="31"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="31"/>
+      <c r="CS14" s="31"/>
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="31"/>
+      <c r="CV14" s="31"/>
+      <c r="CW14" s="31"/>
+      <c r="CX14" s="31"/>
+      <c r="CY14" s="31"/>
+      <c r="CZ14" s="133"/>
+      <c r="DA14" s="31"/>
+      <c r="DB14" s="31"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
+    <row r="15" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="75">
+        <v>45548</v>
+      </c>
+      <c r="F15" s="75">
+        <v>45554</v>
+      </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H15" s="14">
+        <f t="shared" si="39"/>
+        <v>7</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
@@ -3288,13 +4671,27 @@
       <c r="AV15" s="31"/>
       <c r="AW15" s="31"/>
       <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="31"/>
+      <c r="AY15" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ15" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA15" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB15" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC15" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD15" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE15" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF15" s="31"/>
       <c r="BG15" s="31"/>
       <c r="BH15" s="31"/>
@@ -3302,15 +4699,55 @@
       <c r="BJ15" s="31"/>
       <c r="BK15" s="31"/>
       <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="31"/>
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="31"/>
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="31"/>
+      <c r="CG15" s="31"/>
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="31"/>
+      <c r="CJ15" s="31"/>
+      <c r="CK15" s="31"/>
+      <c r="CL15" s="31"/>
+      <c r="CM15" s="31"/>
+      <c r="CN15" s="31"/>
+      <c r="CO15" s="31"/>
+      <c r="CP15" s="31"/>
+      <c r="CQ15" s="31"/>
+      <c r="CR15" s="31"/>
+      <c r="CS15" s="31"/>
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="31"/>
+      <c r="CV15" s="31"/>
+      <c r="CW15" s="31"/>
+      <c r="CX15" s="31"/>
+      <c r="CY15" s="31"/>
+      <c r="CZ15" s="133"/>
+      <c r="DA15" s="31"/>
+      <c r="DB15" s="31"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+    <row r="16" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
       <c r="B16" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>60</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C16" s="55"/>
       <c r="D16" s="20">
         <v>1</v>
       </c>
@@ -3322,7 +4759,7 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="I16" s="31"/>
@@ -3337,8 +4774,8 @@
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
       <c r="W16" s="31"/>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
@@ -3367,13 +4804,27 @@
       <c r="AV16" s="31"/>
       <c r="AW16" s="31"/>
       <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="31"/>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="31"/>
-      <c r="BE16" s="31"/>
+      <c r="AY16" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ16" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA16" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB16" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC16" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD16" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE16" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF16" s="31"/>
       <c r="BG16" s="31"/>
       <c r="BH16" s="31"/>
@@ -3381,28 +4832,68 @@
       <c r="BJ16" s="31"/>
       <c r="BK16" s="31"/>
       <c r="BL16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="31"/>
+      <c r="BO16" s="31"/>
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="31"/>
+      <c r="BU16" s="31"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
+      <c r="CA16" s="31"/>
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="31"/>
+      <c r="CD16" s="31"/>
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="31"/>
+      <c r="CG16" s="31"/>
+      <c r="CH16" s="31"/>
+      <c r="CI16" s="31"/>
+      <c r="CJ16" s="31"/>
+      <c r="CK16" s="31"/>
+      <c r="CL16" s="31"/>
+      <c r="CM16" s="31"/>
+      <c r="CN16" s="31"/>
+      <c r="CO16" s="31"/>
+      <c r="CP16" s="31"/>
+      <c r="CQ16" s="31"/>
+      <c r="CR16" s="31"/>
+      <c r="CS16" s="31"/>
+      <c r="CT16" s="31"/>
+      <c r="CU16" s="31"/>
+      <c r="CV16" s="31"/>
+      <c r="CW16" s="31"/>
+      <c r="CX16" s="31"/>
+      <c r="CY16" s="31"/>
+      <c r="CZ16" s="133"/>
+      <c r="DA16" s="31"/>
+      <c r="DB16" s="31"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C17" s="55"/>
       <c r="D17" s="20">
         <v>1</v>
       </c>
       <c r="E17" s="75">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="F17" s="75">
-        <v>45554</v>
+        <v>45562</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f t="shared" si="39"/>
+        <v>8</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -3416,8 +4907,8 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -3446,13 +4937,27 @@
       <c r="AV17" s="31"/>
       <c r="AW17" s="31"/>
       <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="31"/>
-      <c r="BE17" s="31"/>
+      <c r="AY17" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ17" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA17" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB17" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC17" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD17" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE17" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF17" s="31"/>
       <c r="BG17" s="31"/>
       <c r="BH17" s="31"/>
@@ -3460,26 +4965,68 @@
       <c r="BJ17" s="31"/>
       <c r="BK17" s="31"/>
       <c r="BL17" s="31"/>
+      <c r="BM17" s="31"/>
+      <c r="BN17" s="31"/>
+      <c r="BO17" s="31"/>
+      <c r="BP17" s="31"/>
+      <c r="BQ17" s="31"/>
+      <c r="BR17" s="31"/>
+      <c r="BS17" s="31"/>
+      <c r="BT17" s="31"/>
+      <c r="BU17" s="31"/>
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="31"/>
+      <c r="BX17" s="31"/>
+      <c r="BY17" s="31"/>
+      <c r="BZ17" s="31"/>
+      <c r="CA17" s="31"/>
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="31"/>
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="31"/>
+      <c r="CG17" s="31"/>
+      <c r="CH17" s="31"/>
+      <c r="CI17" s="31"/>
+      <c r="CJ17" s="31"/>
+      <c r="CK17" s="31"/>
+      <c r="CL17" s="31"/>
+      <c r="CM17" s="31"/>
+      <c r="CN17" s="31"/>
+      <c r="CO17" s="31"/>
+      <c r="CP17" s="31"/>
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="31"/>
+      <c r="CS17" s="31"/>
+      <c r="CT17" s="31"/>
+      <c r="CU17" s="31"/>
+      <c r="CV17" s="31"/>
+      <c r="CW17" s="31"/>
+      <c r="CX17" s="31"/>
+      <c r="CY17" s="31"/>
+      <c r="CZ17" s="133"/>
+      <c r="DA17" s="31"/>
+      <c r="DB17" s="31"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="75">
-        <v>45555</v>
+        <v>45548</v>
       </c>
       <c r="F18" s="75">
         <v>45562</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="39"/>
+        <v>15</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
@@ -3497,7 +5044,7 @@
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
+      <c r="Y18" s="32"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
@@ -3523,13 +5070,27 @@
       <c r="AV18" s="31"/>
       <c r="AW18" s="31"/>
       <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
+      <c r="AY18" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ18" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA18" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC18" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD18" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE18" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF18" s="31"/>
       <c r="BG18" s="31"/>
       <c r="BH18" s="31"/>
@@ -3537,26 +5098,64 @@
       <c r="BJ18" s="31"/>
       <c r="BK18" s="31"/>
       <c r="BL18" s="31"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="31"/>
+      <c r="BU18" s="31"/>
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="31"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="31"/>
+      <c r="CA18" s="31"/>
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="31"/>
+      <c r="CD18" s="31"/>
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="31"/>
+      <c r="CG18" s="31"/>
+      <c r="CH18" s="31"/>
+      <c r="CI18" s="31"/>
+      <c r="CJ18" s="31"/>
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="31"/>
+      <c r="CM18" s="31"/>
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="31"/>
+      <c r="CP18" s="31"/>
+      <c r="CQ18" s="31"/>
+      <c r="CR18" s="31"/>
+      <c r="CS18" s="31"/>
+      <c r="CT18" s="31"/>
+      <c r="CU18" s="31"/>
+      <c r="CV18" s="31"/>
+      <c r="CW18" s="31"/>
+      <c r="CX18" s="31"/>
+      <c r="CY18" s="31"/>
+      <c r="CZ18" s="133"/>
+      <c r="DA18" s="31"/>
+      <c r="DB18" s="31"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="75">
-        <v>45548</v>
-      </c>
-      <c r="F19" s="75">
-        <v>45562</v>
-      </c>
+    <row r="19" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14">
-        <f t="shared" si="6"/>
-        <v>15</v>
+      <c r="H19" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v/>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
@@ -3574,7 +5173,7 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="32"/>
+      <c r="Y19" s="31"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="31"/>
@@ -3600,13 +5199,27 @@
       <c r="AV19" s="31"/>
       <c r="AW19" s="31"/>
       <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
+      <c r="AY19" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ19" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA19" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB19" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC19" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD19" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE19" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF19" s="31"/>
       <c r="BG19" s="31"/>
       <c r="BH19" s="31"/>
@@ -3614,25 +5227,68 @@
       <c r="BJ19" s="31"/>
       <c r="BK19" s="31"/>
       <c r="BL19" s="31"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="31"/>
+      <c r="BO19" s="31"/>
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="31"/>
+      <c r="BU19" s="31"/>
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="31"/>
+      <c r="BX19" s="31"/>
+      <c r="BY19" s="31"/>
+      <c r="BZ19" s="31"/>
+      <c r="CA19" s="31"/>
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="31"/>
+      <c r="CD19" s="31"/>
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="31"/>
+      <c r="CG19" s="31"/>
+      <c r="CH19" s="31"/>
+      <c r="CI19" s="31"/>
+      <c r="CJ19" s="31"/>
+      <c r="CK19" s="31"/>
+      <c r="CL19" s="31"/>
+      <c r="CM19" s="31"/>
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="31"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="31"/>
+      <c r="CS19" s="31"/>
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="31"/>
+      <c r="CV19" s="31"/>
+      <c r="CW19" s="31"/>
+      <c r="CX19" s="31"/>
+      <c r="CY19" s="31"/>
+      <c r="CZ19" s="133"/>
+      <c r="DA19" s="31"/>
+      <c r="DB19" s="31"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
-      <c r="B20" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="20">
+      <c r="B20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="75">
-        <v>45548</v>
-      </c>
-      <c r="F20" s="75">
-        <v>45555</v>
+      <c r="E20" s="78">
+        <v>45562</v>
+      </c>
+      <c r="F20" s="78">
+        <f>E20+7</f>
+        <v>45569</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="I20" s="31"/>
@@ -3647,7 +5303,7 @@
       <c r="R20" s="31"/>
       <c r="S20" s="31"/>
       <c r="T20" s="31"/>
-      <c r="U20" s="94"/>
+      <c r="U20" s="31"/>
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
       <c r="X20" s="31"/>
@@ -3677,13 +5333,27 @@
       <c r="AV20" s="31"/>
       <c r="AW20" s="31"/>
       <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="31"/>
+      <c r="AY20" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ20" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA20" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB20" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC20" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD20" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE20" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF20" s="31"/>
       <c r="BG20" s="31"/>
       <c r="BH20" s="31"/>
@@ -3691,22 +5361,69 @@
       <c r="BJ20" s="31"/>
       <c r="BK20" s="31"/>
       <c r="BL20" s="31"/>
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="31"/>
+      <c r="BO20" s="31"/>
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="31"/>
+      <c r="BR20" s="31"/>
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="31"/>
+      <c r="BU20" s="31"/>
+      <c r="BV20" s="31"/>
+      <c r="BW20" s="31"/>
+      <c r="BX20" s="31"/>
+      <c r="BY20" s="31"/>
+      <c r="BZ20" s="31"/>
+      <c r="CA20" s="31"/>
+      <c r="CB20" s="31"/>
+      <c r="CC20" s="31"/>
+      <c r="CD20" s="31"/>
+      <c r="CE20" s="31"/>
+      <c r="CF20" s="31"/>
+      <c r="CG20" s="31"/>
+      <c r="CH20" s="31"/>
+      <c r="CI20" s="31"/>
+      <c r="CJ20" s="31"/>
+      <c r="CK20" s="31"/>
+      <c r="CL20" s="31"/>
+      <c r="CM20" s="31"/>
+      <c r="CN20" s="31"/>
+      <c r="CO20" s="31"/>
+      <c r="CP20" s="31"/>
+      <c r="CQ20" s="31"/>
+      <c r="CR20" s="31"/>
+      <c r="CS20" s="31"/>
+      <c r="CT20" s="31"/>
+      <c r="CU20" s="31"/>
+      <c r="CV20" s="31"/>
+      <c r="CW20" s="31"/>
+      <c r="CX20" s="31"/>
+      <c r="CY20" s="31"/>
+      <c r="CZ20" s="133"/>
+      <c r="DA20" s="31"/>
+      <c r="DB20" s="31"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
+    <row r="21" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+      <c r="E21" s="78">
+        <v>45548</v>
+      </c>
+      <c r="F21" s="78">
+        <f>E21+7</f>
+        <v>45555</v>
+      </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H21" s="14">
+        <f t="shared" si="39"/>
+        <v>8</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -3750,13 +5467,27 @@
       <c r="AV21" s="31"/>
       <c r="AW21" s="31"/>
       <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
+      <c r="AY21" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ21" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA21" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB21" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC21" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD21" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE21" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF21" s="31"/>
       <c r="BG21" s="31"/>
       <c r="BH21" s="31"/>
@@ -3764,28 +5495,69 @@
       <c r="BJ21" s="31"/>
       <c r="BK21" s="31"/>
       <c r="BL21" s="31"/>
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="31"/>
+      <c r="BO21" s="31"/>
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="31"/>
+      <c r="BR21" s="31"/>
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="31"/>
+      <c r="BU21" s="31"/>
+      <c r="BV21" s="31"/>
+      <c r="BW21" s="31"/>
+      <c r="BX21" s="31"/>
+      <c r="BY21" s="31"/>
+      <c r="BZ21" s="31"/>
+      <c r="CA21" s="31"/>
+      <c r="CB21" s="31"/>
+      <c r="CC21" s="31"/>
+      <c r="CD21" s="31"/>
+      <c r="CE21" s="31"/>
+      <c r="CF21" s="31"/>
+      <c r="CG21" s="31"/>
+      <c r="CH21" s="31"/>
+      <c r="CI21" s="31"/>
+      <c r="CJ21" s="31"/>
+      <c r="CK21" s="31"/>
+      <c r="CL21" s="31"/>
+      <c r="CM21" s="31"/>
+      <c r="CN21" s="31"/>
+      <c r="CO21" s="31"/>
+      <c r="CP21" s="31"/>
+      <c r="CQ21" s="31"/>
+      <c r="CR21" s="31"/>
+      <c r="CS21" s="31"/>
+      <c r="CT21" s="31"/>
+      <c r="CU21" s="31"/>
+      <c r="CV21" s="31"/>
+      <c r="CW21" s="31"/>
+      <c r="CX21" s="31"/>
+      <c r="CY21" s="31"/>
+      <c r="CZ21" s="133"/>
+      <c r="DA21" s="31"/>
+      <c r="DB21" s="31"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="63" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="78">
-        <f>Project_Start + 5</f>
-        <v>45546</v>
+        <v>45548</v>
       </c>
       <c r="F22" s="78">
-        <f>E22+3</f>
-        <v>45549</v>
+        <f>E22+14</f>
+        <v>45562</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="39"/>
+        <v>15</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -3829,13 +5601,27 @@
       <c r="AV22" s="31"/>
       <c r="AW22" s="31"/>
       <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
+      <c r="AY22" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ22" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA22" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB22" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC22" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD22" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE22" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF22" s="31"/>
       <c r="BG22" s="31"/>
       <c r="BH22" s="31"/>
@@ -3843,27 +5629,69 @@
       <c r="BJ22" s="31"/>
       <c r="BK22" s="31"/>
       <c r="BL22" s="31"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="31"/>
+      <c r="BP22" s="31"/>
+      <c r="BQ22" s="31"/>
+      <c r="BR22" s="31"/>
+      <c r="BS22" s="31"/>
+      <c r="BT22" s="31"/>
+      <c r="BU22" s="31"/>
+      <c r="BV22" s="31"/>
+      <c r="BW22" s="31"/>
+      <c r="BX22" s="31"/>
+      <c r="BY22" s="31"/>
+      <c r="BZ22" s="31"/>
+      <c r="CA22" s="31"/>
+      <c r="CB22" s="31"/>
+      <c r="CC22" s="31"/>
+      <c r="CD22" s="31"/>
+      <c r="CE22" s="31"/>
+      <c r="CF22" s="31"/>
+      <c r="CG22" s="31"/>
+      <c r="CH22" s="31"/>
+      <c r="CI22" s="31"/>
+      <c r="CJ22" s="31"/>
+      <c r="CK22" s="31"/>
+      <c r="CL22" s="31"/>
+      <c r="CM22" s="31"/>
+      <c r="CN22" s="31"/>
+      <c r="CO22" s="31"/>
+      <c r="CP22" s="31"/>
+      <c r="CQ22" s="31"/>
+      <c r="CR22" s="31"/>
+      <c r="CS22" s="31"/>
+      <c r="CT22" s="31"/>
+      <c r="CU22" s="31"/>
+      <c r="CV22" s="31"/>
+      <c r="CW22" s="31"/>
+      <c r="CX22" s="31"/>
+      <c r="CY22" s="31"/>
+      <c r="CZ22" s="133"/>
+      <c r="DA22" s="31"/>
+      <c r="DB22" s="31"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="23">
         <v>1</v>
       </c>
       <c r="E23" s="78">
-        <v>45543</v>
+        <v>45555</v>
       </c>
       <c r="F23" s="78">
-        <f>E23+4</f>
-        <v>45547</v>
+        <f>E23+7</f>
+        <v>45562</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="39"/>
+        <v>8</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -3907,13 +5735,27 @@
       <c r="AV23" s="31"/>
       <c r="AW23" s="31"/>
       <c r="AX23" s="31"/>
-      <c r="AY23" s="31"/>
-      <c r="AZ23" s="31"/>
-      <c r="BA23" s="31"/>
-      <c r="BB23" s="31"/>
-      <c r="BC23" s="31"/>
-      <c r="BD23" s="31"/>
-      <c r="BE23" s="31"/>
+      <c r="AY23" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ23" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA23" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB23" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC23" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD23" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE23" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF23" s="31"/>
       <c r="BG23" s="31"/>
       <c r="BH23" s="31"/>
@@ -3921,27 +5763,64 @@
       <c r="BJ23" s="31"/>
       <c r="BK23" s="31"/>
       <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="31"/>
+      <c r="BR23" s="31"/>
+      <c r="BS23" s="31"/>
+      <c r="BT23" s="31"/>
+      <c r="BU23" s="31"/>
+      <c r="BV23" s="31"/>
+      <c r="BW23" s="31"/>
+      <c r="BX23" s="31"/>
+      <c r="BY23" s="31"/>
+      <c r="BZ23" s="31"/>
+      <c r="CA23" s="31"/>
+      <c r="CB23" s="31"/>
+      <c r="CC23" s="31"/>
+      <c r="CD23" s="31"/>
+      <c r="CE23" s="31"/>
+      <c r="CF23" s="31"/>
+      <c r="CG23" s="31"/>
+      <c r="CH23" s="31"/>
+      <c r="CI23" s="31"/>
+      <c r="CJ23" s="31"/>
+      <c r="CK23" s="31"/>
+      <c r="CL23" s="31"/>
+      <c r="CM23" s="31"/>
+      <c r="CN23" s="31"/>
+      <c r="CO23" s="31"/>
+      <c r="CP23" s="31"/>
+      <c r="CQ23" s="31"/>
+      <c r="CR23" s="31"/>
+      <c r="CS23" s="31"/>
+      <c r="CT23" s="31"/>
+      <c r="CU23" s="31"/>
+      <c r="CV23" s="31"/>
+      <c r="CW23" s="31"/>
+      <c r="CX23" s="31"/>
+      <c r="CY23" s="31"/>
+      <c r="CZ23" s="133"/>
+      <c r="DA23" s="31"/>
+      <c r="DB23" s="31"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="78">
-        <v>45562</v>
-      </c>
-      <c r="F24" s="78">
-        <f>E24+7</f>
-        <v>45569</v>
-      </c>
+    <row r="24" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="14">
-        <f t="shared" si="6"/>
-        <v>8</v>
+      <c r="H24" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v/>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -3985,13 +5864,27 @@
       <c r="AV24" s="31"/>
       <c r="AW24" s="31"/>
       <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="31"/>
-      <c r="BC24" s="31"/>
-      <c r="BD24" s="31"/>
-      <c r="BE24" s="31"/>
+      <c r="AY24" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ24" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA24" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB24" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC24" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD24" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE24" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF24" s="31"/>
       <c r="BG24" s="31"/>
       <c r="BH24" s="31"/>
@@ -3999,26 +5892,67 @@
       <c r="BJ24" s="31"/>
       <c r="BK24" s="31"/>
       <c r="BL24" s="31"/>
+      <c r="BM24" s="31"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="31"/>
+      <c r="BP24" s="31"/>
+      <c r="BQ24" s="31"/>
+      <c r="BR24" s="31"/>
+      <c r="BS24" s="31"/>
+      <c r="BT24" s="31"/>
+      <c r="BU24" s="31"/>
+      <c r="BV24" s="31"/>
+      <c r="BW24" s="31"/>
+      <c r="BX24" s="31"/>
+      <c r="BY24" s="31"/>
+      <c r="BZ24" s="31"/>
+      <c r="CA24" s="31"/>
+      <c r="CB24" s="31"/>
+      <c r="CC24" s="31"/>
+      <c r="CD24" s="31"/>
+      <c r="CE24" s="31"/>
+      <c r="CF24" s="31"/>
+      <c r="CG24" s="31"/>
+      <c r="CH24" s="31"/>
+      <c r="CI24" s="31"/>
+      <c r="CJ24" s="31"/>
+      <c r="CK24" s="31"/>
+      <c r="CL24" s="31"/>
+      <c r="CM24" s="31"/>
+      <c r="CN24" s="31"/>
+      <c r="CO24" s="31"/>
+      <c r="CP24" s="31"/>
+      <c r="CQ24" s="31"/>
+      <c r="CR24" s="31"/>
+      <c r="CS24" s="31"/>
+      <c r="CT24" s="31"/>
+      <c r="CU24" s="31"/>
+      <c r="CV24" s="31"/>
+      <c r="CW24" s="31"/>
+      <c r="CX24" s="31"/>
+      <c r="CY24" s="31"/>
+      <c r="CZ24" s="133"/>
+      <c r="DA24" s="31"/>
+      <c r="DB24" s="31"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
-      <c r="B25" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="78">
-        <v>45555</v>
-      </c>
-      <c r="F25" s="78">
-        <f>E25+14</f>
-        <v>45569</v>
+      <c r="B25" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="81">
+        <v>45548</v>
+      </c>
+      <c r="F25" s="81">
+        <v>45562</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="39"/>
         <v>15</v>
       </c>
       <c r="I25" s="31"/>
@@ -4063,13 +5997,27 @@
       <c r="AV25" s="31"/>
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="31"/>
-      <c r="BC25" s="31"/>
-      <c r="BD25" s="31"/>
-      <c r="BE25" s="31"/>
+      <c r="AY25" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ25" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA25" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB25" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC25" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD25" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE25" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF25" s="31"/>
       <c r="BG25" s="31"/>
       <c r="BH25" s="31"/>
@@ -4077,28 +6025,68 @@
       <c r="BJ25" s="31"/>
       <c r="BK25" s="31"/>
       <c r="BL25" s="31"/>
+      <c r="BM25" s="31"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
+      <c r="BR25" s="31"/>
+      <c r="BS25" s="31"/>
+      <c r="BT25" s="31"/>
+      <c r="BU25" s="31"/>
+      <c r="BV25" s="31"/>
+      <c r="BW25" s="31"/>
+      <c r="BX25" s="31"/>
+      <c r="BY25" s="31"/>
+      <c r="BZ25" s="31"/>
+      <c r="CA25" s="31"/>
+      <c r="CB25" s="31"/>
+      <c r="CC25" s="31"/>
+      <c r="CD25" s="31"/>
+      <c r="CE25" s="31"/>
+      <c r="CF25" s="31"/>
+      <c r="CG25" s="31"/>
+      <c r="CH25" s="31"/>
+      <c r="CI25" s="31"/>
+      <c r="CJ25" s="31"/>
+      <c r="CK25" s="31"/>
+      <c r="CL25" s="31"/>
+      <c r="CM25" s="31"/>
+      <c r="CN25" s="31"/>
+      <c r="CO25" s="31"/>
+      <c r="CP25" s="31"/>
+      <c r="CQ25" s="31"/>
+      <c r="CR25" s="31"/>
+      <c r="CS25" s="31"/>
+      <c r="CT25" s="31"/>
+      <c r="CU25" s="31"/>
+      <c r="CV25" s="31"/>
+      <c r="CW25" s="31"/>
+      <c r="CX25" s="31"/>
+      <c r="CY25" s="31"/>
+      <c r="CZ25" s="133"/>
+      <c r="DA25" s="31"/>
+      <c r="DB25" s="31"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
-      <c r="B26" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="78">
-        <f>E24</f>
-        <v>45562</v>
-      </c>
-      <c r="F26" s="78">
-        <f>E26+4</f>
-        <v>45566</v>
+      <c r="B26" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="81">
+        <v>45548</v>
+      </c>
+      <c r="F26" s="81">
+        <v>45569</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="39"/>
+        <v>22</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -4142,13 +6130,27 @@
       <c r="AV26" s="31"/>
       <c r="AW26" s="31"/>
       <c r="AX26" s="31"/>
-      <c r="AY26" s="31"/>
-      <c r="AZ26" s="31"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="31"/>
-      <c r="BC26" s="31"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="31"/>
+      <c r="AY26" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ26" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA26" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB26" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC26" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD26" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE26" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF26" s="31"/>
       <c r="BG26" s="31"/>
       <c r="BH26" s="31"/>
@@ -4156,22 +6158,68 @@
       <c r="BJ26" s="31"/>
       <c r="BK26" s="31"/>
       <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="31"/>
+      <c r="BP26" s="31"/>
+      <c r="BQ26" s="31"/>
+      <c r="BR26" s="31"/>
+      <c r="BS26" s="31"/>
+      <c r="BT26" s="31"/>
+      <c r="BU26" s="31"/>
+      <c r="BV26" s="31"/>
+      <c r="BW26" s="31"/>
+      <c r="BX26" s="31"/>
+      <c r="BY26" s="31"/>
+      <c r="BZ26" s="31"/>
+      <c r="CA26" s="31"/>
+      <c r="CB26" s="31"/>
+      <c r="CC26" s="31"/>
+      <c r="CD26" s="31"/>
+      <c r="CE26" s="31"/>
+      <c r="CF26" s="31"/>
+      <c r="CG26" s="31"/>
+      <c r="CH26" s="31"/>
+      <c r="CI26" s="31"/>
+      <c r="CJ26" s="31"/>
+      <c r="CK26" s="31"/>
+      <c r="CL26" s="31"/>
+      <c r="CM26" s="31"/>
+      <c r="CN26" s="31"/>
+      <c r="CO26" s="31"/>
+      <c r="CP26" s="31"/>
+      <c r="CQ26" s="31"/>
+      <c r="CR26" s="31"/>
+      <c r="CS26" s="31"/>
+      <c r="CT26" s="31"/>
+      <c r="CU26" s="31"/>
+      <c r="CV26" s="31"/>
+      <c r="CW26" s="31"/>
+      <c r="CX26" s="31"/>
+      <c r="CY26" s="31"/>
+      <c r="CZ26" s="133"/>
+      <c r="DA26" s="31"/>
+      <c r="DB26" s="31"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
+    <row r="27" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="26">
+        <v>1</v>
+      </c>
+      <c r="E27" s="81">
+        <v>45562</v>
+      </c>
+      <c r="F27" s="81">
+        <v>45578</v>
+      </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H27" s="14">
+        <f t="shared" si="39"/>
+        <v>17</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -4215,13 +6263,27 @@
       <c r="AV27" s="31"/>
       <c r="AW27" s="31"/>
       <c r="AX27" s="31"/>
-      <c r="AY27" s="31"/>
-      <c r="AZ27" s="31"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="31"/>
-      <c r="BC27" s="31"/>
-      <c r="BD27" s="31"/>
-      <c r="BE27" s="31"/>
+      <c r="AY27" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ27" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA27" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB27" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC27" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD27" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE27" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF27" s="31"/>
       <c r="BG27" s="31"/>
       <c r="BH27" s="31"/>
@@ -4229,24 +6291,68 @@
       <c r="BJ27" s="31"/>
       <c r="BK27" s="31"/>
       <c r="BL27" s="31"/>
+      <c r="BM27" s="31"/>
+      <c r="BN27" s="31"/>
+      <c r="BO27" s="31"/>
+      <c r="BP27" s="31"/>
+      <c r="BQ27" s="31"/>
+      <c r="BR27" s="31"/>
+      <c r="BS27" s="31"/>
+      <c r="BT27" s="31"/>
+      <c r="BU27" s="31"/>
+      <c r="BV27" s="31"/>
+      <c r="BW27" s="31"/>
+      <c r="BX27" s="31"/>
+      <c r="BY27" s="31"/>
+      <c r="BZ27" s="31"/>
+      <c r="CA27" s="31"/>
+      <c r="CB27" s="31"/>
+      <c r="CC27" s="31"/>
+      <c r="CD27" s="31"/>
+      <c r="CE27" s="31"/>
+      <c r="CF27" s="31"/>
+      <c r="CG27" s="31"/>
+      <c r="CH27" s="31"/>
+      <c r="CI27" s="31"/>
+      <c r="CJ27" s="31"/>
+      <c r="CK27" s="31"/>
+      <c r="CL27" s="31"/>
+      <c r="CM27" s="31"/>
+      <c r="CN27" s="31"/>
+      <c r="CO27" s="31"/>
+      <c r="CP27" s="31"/>
+      <c r="CQ27" s="31"/>
+      <c r="CR27" s="31"/>
+      <c r="CS27" s="31"/>
+      <c r="CT27" s="31"/>
+      <c r="CU27" s="31"/>
+      <c r="CV27" s="31"/>
+      <c r="CW27" s="31"/>
+      <c r="CX27" s="31"/>
+      <c r="CY27" s="31"/>
+      <c r="CZ27" s="133"/>
+      <c r="DA27" s="31"/>
+      <c r="DB27" s="31"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="64" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C28" s="59"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="81" t="s">
-        <v>26</v>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="E28" s="81">
+        <v>45569</v>
+      </c>
+      <c r="F28" s="81">
+        <v>45604</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H28" s="14">
+        <f t="shared" si="39"/>
+        <v>36</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -4290,13 +6396,27 @@
       <c r="AV28" s="31"/>
       <c r="AW28" s="31"/>
       <c r="AX28" s="31"/>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="31"/>
-      <c r="BC28" s="31"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
+      <c r="AY28" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ28" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA28" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB28" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC28" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD28" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE28" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF28" s="31"/>
       <c r="BG28" s="31"/>
       <c r="BH28" s="31"/>
@@ -4304,24 +6424,68 @@
       <c r="BJ28" s="31"/>
       <c r="BK28" s="31"/>
       <c r="BL28" s="31"/>
+      <c r="BM28" s="31"/>
+      <c r="BN28" s="31"/>
+      <c r="BO28" s="31"/>
+      <c r="BP28" s="31"/>
+      <c r="BQ28" s="31"/>
+      <c r="BR28" s="31"/>
+      <c r="BS28" s="31"/>
+      <c r="BT28" s="31"/>
+      <c r="BU28" s="31"/>
+      <c r="BV28" s="31"/>
+      <c r="BW28" s="31"/>
+      <c r="BX28" s="31"/>
+      <c r="BY28" s="31"/>
+      <c r="BZ28" s="31"/>
+      <c r="CA28" s="31"/>
+      <c r="CB28" s="31"/>
+      <c r="CC28" s="31"/>
+      <c r="CD28" s="31"/>
+      <c r="CE28" s="31"/>
+      <c r="CF28" s="31"/>
+      <c r="CG28" s="31"/>
+      <c r="CH28" s="31"/>
+      <c r="CI28" s="31"/>
+      <c r="CJ28" s="31"/>
+      <c r="CK28" s="31"/>
+      <c r="CL28" s="31"/>
+      <c r="CM28" s="31"/>
+      <c r="CN28" s="31"/>
+      <c r="CO28" s="31"/>
+      <c r="CP28" s="31"/>
+      <c r="CQ28" s="31"/>
+      <c r="CR28" s="31"/>
+      <c r="CS28" s="31"/>
+      <c r="CT28" s="31"/>
+      <c r="CU28" s="31"/>
+      <c r="CV28" s="31"/>
+      <c r="CW28" s="31"/>
+      <c r="CX28" s="31"/>
+      <c r="CY28" s="31"/>
+      <c r="CZ28" s="133"/>
+      <c r="DA28" s="31"/>
+      <c r="DB28" s="31"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="64" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C29" s="59"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="81" t="s">
-        <v>26</v>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
+      <c r="E29" s="81">
+        <v>45578</v>
+      </c>
+      <c r="F29" s="81">
+        <v>45608</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H29" s="14">
+        <f t="shared" si="39"/>
+        <v>31</v>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -4365,13 +6529,27 @@
       <c r="AV29" s="31"/>
       <c r="AW29" s="31"/>
       <c r="AX29" s="31"/>
-      <c r="AY29" s="31"/>
-      <c r="AZ29" s="31"/>
-      <c r="BA29" s="31"/>
-      <c r="BB29" s="31"/>
-      <c r="BC29" s="31"/>
-      <c r="BD29" s="31"/>
-      <c r="BE29" s="31"/>
+      <c r="AY29" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ29" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA29" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB29" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC29" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD29" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE29" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF29" s="31"/>
       <c r="BG29" s="31"/>
       <c r="BH29" s="31"/>
@@ -4379,24 +6557,64 @@
       <c r="BJ29" s="31"/>
       <c r="BK29" s="31"/>
       <c r="BL29" s="31"/>
+      <c r="BM29" s="31"/>
+      <c r="BN29" s="31"/>
+      <c r="BO29" s="31"/>
+      <c r="BP29" s="31"/>
+      <c r="BQ29" s="31"/>
+      <c r="BR29" s="31"/>
+      <c r="BS29" s="31"/>
+      <c r="BT29" s="31"/>
+      <c r="BU29" s="31"/>
+      <c r="BV29" s="31"/>
+      <c r="BW29" s="31"/>
+      <c r="BX29" s="31"/>
+      <c r="BY29" s="31"/>
+      <c r="BZ29" s="31"/>
+      <c r="CA29" s="31"/>
+      <c r="CB29" s="31"/>
+      <c r="CC29" s="31"/>
+      <c r="CD29" s="31"/>
+      <c r="CE29" s="31"/>
+      <c r="CF29" s="31"/>
+      <c r="CG29" s="31"/>
+      <c r="CH29" s="31"/>
+      <c r="CI29" s="31"/>
+      <c r="CJ29" s="31"/>
+      <c r="CK29" s="31"/>
+      <c r="CL29" s="31"/>
+      <c r="CM29" s="31"/>
+      <c r="CN29" s="31"/>
+      <c r="CO29" s="31"/>
+      <c r="CP29" s="31"/>
+      <c r="CQ29" s="31"/>
+      <c r="CR29" s="31"/>
+      <c r="CS29" s="31"/>
+      <c r="CT29" s="31"/>
+      <c r="CU29" s="31"/>
+      <c r="CV29" s="31"/>
+      <c r="CW29" s="31"/>
+      <c r="CX29" s="31"/>
+      <c r="CY29" s="31"/>
+      <c r="CZ29" s="133"/>
+      <c r="DA29" s="31"/>
+      <c r="DB29" s="31"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="81" t="s">
-        <v>26</v>
-      </c>
+    <row r="30" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="14" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H30" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v/>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
@@ -4440,13 +6658,27 @@
       <c r="AV30" s="31"/>
       <c r="AW30" s="31"/>
       <c r="AX30" s="31"/>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="31"/>
-      <c r="BC30" s="31"/>
-      <c r="BD30" s="31"/>
-      <c r="BE30" s="31"/>
+      <c r="AY30" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ30" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA30" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB30" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC30" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD30" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE30" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF30" s="31"/>
       <c r="BG30" s="31"/>
       <c r="BH30" s="31"/>
@@ -4454,24 +6686,68 @@
       <c r="BJ30" s="31"/>
       <c r="BK30" s="31"/>
       <c r="BL30" s="31"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="31"/>
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
+      <c r="BR30" s="31"/>
+      <c r="BS30" s="31"/>
+      <c r="BT30" s="31"/>
+      <c r="BU30" s="31"/>
+      <c r="BV30" s="31"/>
+      <c r="BW30" s="31"/>
+      <c r="BX30" s="31"/>
+      <c r="BY30" s="31"/>
+      <c r="BZ30" s="31"/>
+      <c r="CA30" s="31"/>
+      <c r="CB30" s="31"/>
+      <c r="CC30" s="31"/>
+      <c r="CD30" s="31"/>
+      <c r="CE30" s="31"/>
+      <c r="CF30" s="31"/>
+      <c r="CG30" s="31"/>
+      <c r="CH30" s="31"/>
+      <c r="CI30" s="31"/>
+      <c r="CJ30" s="31"/>
+      <c r="CK30" s="31"/>
+      <c r="CL30" s="31"/>
+      <c r="CM30" s="31"/>
+      <c r="CN30" s="31"/>
+      <c r="CO30" s="31"/>
+      <c r="CP30" s="31"/>
+      <c r="CQ30" s="31"/>
+      <c r="CR30" s="31"/>
+      <c r="CS30" s="31"/>
+      <c r="CT30" s="31"/>
+      <c r="CU30" s="31"/>
+      <c r="CV30" s="31"/>
+      <c r="CW30" s="31"/>
+      <c r="CX30" s="31"/>
+      <c r="CY30" s="31"/>
+      <c r="CZ30" s="133"/>
+      <c r="DA30" s="31"/>
+      <c r="DB30" s="31"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="81" t="s">
-        <v>26</v>
+      <c r="B31" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95">
+        <v>1</v>
+      </c>
+      <c r="E31" s="96">
+        <v>45548</v>
+      </c>
+      <c r="F31" s="96">
+        <v>45562</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H31" s="14">
+        <f t="shared" si="39"/>
+        <v>15</v>
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
@@ -4515,13 +6791,27 @@
       <c r="AV31" s="31"/>
       <c r="AW31" s="31"/>
       <c r="AX31" s="31"/>
-      <c r="AY31" s="31"/>
-      <c r="AZ31" s="31"/>
-      <c r="BA31" s="31"/>
-      <c r="BB31" s="31"/>
-      <c r="BC31" s="31"/>
-      <c r="BD31" s="31"/>
-      <c r="BE31" s="31"/>
+      <c r="AY31" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ31" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA31" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB31" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC31" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD31" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE31" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF31" s="31"/>
       <c r="BG31" s="31"/>
       <c r="BH31" s="31"/>
@@ -4529,24 +6819,68 @@
       <c r="BJ31" s="31"/>
       <c r="BK31" s="31"/>
       <c r="BL31" s="31"/>
+      <c r="BM31" s="31"/>
+      <c r="BN31" s="31"/>
+      <c r="BO31" s="31"/>
+      <c r="BP31" s="31"/>
+      <c r="BQ31" s="31"/>
+      <c r="BR31" s="31"/>
+      <c r="BS31" s="31"/>
+      <c r="BT31" s="31"/>
+      <c r="BU31" s="31"/>
+      <c r="BV31" s="31"/>
+      <c r="BW31" s="31"/>
+      <c r="BX31" s="31"/>
+      <c r="BY31" s="31"/>
+      <c r="BZ31" s="31"/>
+      <c r="CA31" s="31"/>
+      <c r="CB31" s="31"/>
+      <c r="CC31" s="31"/>
+      <c r="CD31" s="31"/>
+      <c r="CE31" s="31"/>
+      <c r="CF31" s="31"/>
+      <c r="CG31" s="31"/>
+      <c r="CH31" s="31"/>
+      <c r="CI31" s="31"/>
+      <c r="CJ31" s="31"/>
+      <c r="CK31" s="31"/>
+      <c r="CL31" s="31"/>
+      <c r="CM31" s="31"/>
+      <c r="CN31" s="31"/>
+      <c r="CO31" s="31"/>
+      <c r="CP31" s="31"/>
+      <c r="CQ31" s="31"/>
+      <c r="CR31" s="31"/>
+      <c r="CS31" s="31"/>
+      <c r="CT31" s="31"/>
+      <c r="CU31" s="31"/>
+      <c r="CV31" s="31"/>
+      <c r="CW31" s="31"/>
+      <c r="CX31" s="31"/>
+      <c r="CY31" s="31"/>
+      <c r="CZ31" s="133"/>
+      <c r="DA31" s="31"/>
+      <c r="DB31" s="31"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
-      <c r="B32" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="81" t="s">
-        <v>26</v>
+      <c r="B32" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95">
+        <v>1</v>
+      </c>
+      <c r="E32" s="96">
+        <v>45555</v>
+      </c>
+      <c r="F32" s="96">
+        <v>45590</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+      <c r="H32" s="14">
+        <f t="shared" si="39"/>
+        <v>36</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
@@ -4590,13 +6924,27 @@
       <c r="AV32" s="31"/>
       <c r="AW32" s="31"/>
       <c r="AX32" s="31"/>
-      <c r="AY32" s="31"/>
-      <c r="AZ32" s="31"/>
-      <c r="BA32" s="31"/>
-      <c r="BB32" s="31"/>
-      <c r="BC32" s="31"/>
-      <c r="BD32" s="31"/>
-      <c r="BE32" s="31"/>
+      <c r="AY32" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ32" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA32" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB32" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC32" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD32" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE32" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF32" s="31"/>
       <c r="BG32" s="31"/>
       <c r="BH32" s="31"/>
@@ -4604,20 +6952,68 @@
       <c r="BJ32" s="31"/>
       <c r="BK32" s="31"/>
       <c r="BL32" s="31"/>
+      <c r="BM32" s="31"/>
+      <c r="BN32" s="31"/>
+      <c r="BO32" s="31"/>
+      <c r="BP32" s="31"/>
+      <c r="BQ32" s="31"/>
+      <c r="BR32" s="31"/>
+      <c r="BS32" s="31"/>
+      <c r="BT32" s="31"/>
+      <c r="BU32" s="31"/>
+      <c r="BV32" s="31"/>
+      <c r="BW32" s="31"/>
+      <c r="BX32" s="31"/>
+      <c r="BY32" s="31"/>
+      <c r="BZ32" s="31"/>
+      <c r="CA32" s="31"/>
+      <c r="CB32" s="31"/>
+      <c r="CC32" s="31"/>
+      <c r="CD32" s="31"/>
+      <c r="CE32" s="31"/>
+      <c r="CF32" s="31"/>
+      <c r="CG32" s="31"/>
+      <c r="CH32" s="31"/>
+      <c r="CI32" s="31"/>
+      <c r="CJ32" s="31"/>
+      <c r="CK32" s="31"/>
+      <c r="CL32" s="31"/>
+      <c r="CM32" s="31"/>
+      <c r="CN32" s="31"/>
+      <c r="CO32" s="31"/>
+      <c r="CP32" s="31"/>
+      <c r="CQ32" s="31"/>
+      <c r="CR32" s="31"/>
+      <c r="CS32" s="31"/>
+      <c r="CT32" s="31"/>
+      <c r="CU32" s="31"/>
+      <c r="CV32" s="31"/>
+      <c r="CW32" s="31"/>
+      <c r="CX32" s="31"/>
+      <c r="CY32" s="31"/>
+      <c r="CZ32" s="133"/>
+      <c r="DA32" s="31"/>
+      <c r="DB32" s="31"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
+    <row r="33" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95">
+        <v>1</v>
+      </c>
+      <c r="E33" s="96">
+        <v>45562</v>
+      </c>
+      <c r="F33" s="96">
+        <v>45611</v>
+      </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="H33" s="14">
+        <f t="shared" si="39"/>
+        <v>50</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
@@ -4661,13 +7057,27 @@
       <c r="AV33" s="31"/>
       <c r="AW33" s="31"/>
       <c r="AX33" s="31"/>
-      <c r="AY33" s="31"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="31"/>
-      <c r="BC33" s="31"/>
-      <c r="BD33" s="31"/>
-      <c r="BE33" s="31"/>
+      <c r="AY33" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ33" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA33" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB33" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC33" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD33" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE33" s="133" t="s">
+        <v>85</v>
+      </c>
       <c r="BF33" s="31"/>
       <c r="BG33" s="31"/>
       <c r="BH33" s="31"/>
@@ -4675,92 +7085,2520 @@
       <c r="BJ33" s="31"/>
       <c r="BK33" s="31"/>
       <c r="BL33" s="31"/>
+      <c r="BM33" s="31"/>
+      <c r="BN33" s="31"/>
+      <c r="BO33" s="31"/>
+      <c r="BP33" s="31"/>
+      <c r="BQ33" s="31"/>
+      <c r="BR33" s="31"/>
+      <c r="BS33" s="31"/>
+      <c r="BT33" s="31"/>
+      <c r="BU33" s="31"/>
+      <c r="BV33" s="31"/>
+      <c r="BW33" s="31"/>
+      <c r="BX33" s="31"/>
+      <c r="BY33" s="31"/>
+      <c r="BZ33" s="31"/>
+      <c r="CA33" s="31"/>
+      <c r="CB33" s="31"/>
+      <c r="CC33" s="31"/>
+      <c r="CD33" s="31"/>
+      <c r="CE33" s="31"/>
+      <c r="CF33" s="31"/>
+      <c r="CG33" s="31"/>
+      <c r="CH33" s="31"/>
+      <c r="CI33" s="31"/>
+      <c r="CJ33" s="31"/>
+      <c r="CK33" s="31"/>
+      <c r="CL33" s="31"/>
+      <c r="CM33" s="31"/>
+      <c r="CN33" s="31"/>
+      <c r="CO33" s="31"/>
+      <c r="CP33" s="31"/>
+      <c r="CQ33" s="31"/>
+      <c r="CR33" s="31"/>
+      <c r="CS33" s="31"/>
+      <c r="CT33" s="31"/>
+      <c r="CU33" s="31"/>
+      <c r="CV33" s="31"/>
+      <c r="CW33" s="31"/>
+      <c r="CX33" s="31"/>
+      <c r="CY33" s="31"/>
+      <c r="CZ33" s="133"/>
+      <c r="DA33" s="31"/>
+      <c r="DB33" s="31"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95">
+        <v>1</v>
+      </c>
+      <c r="E34" s="96">
+        <v>45590</v>
+      </c>
+      <c r="F34" s="96">
+        <v>45611</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14">
+        <f t="shared" si="39"/>
+        <v>22</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ34" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA34" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB34" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC34" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD34" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE34" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31"/>
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31"/>
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="31"/>
+      <c r="BQ34" s="31"/>
+      <c r="BR34" s="31"/>
+      <c r="BS34" s="31"/>
+      <c r="BT34" s="31"/>
+      <c r="BU34" s="31"/>
+      <c r="BV34" s="31"/>
+      <c r="BW34" s="31"/>
+      <c r="BX34" s="31"/>
+      <c r="BY34" s="31"/>
+      <c r="BZ34" s="31"/>
+      <c r="CA34" s="31"/>
+      <c r="CB34" s="31"/>
+      <c r="CC34" s="31"/>
+      <c r="CD34" s="31"/>
+      <c r="CE34" s="31"/>
+      <c r="CF34" s="31"/>
+      <c r="CG34" s="31"/>
+      <c r="CH34" s="31"/>
+      <c r="CI34" s="31"/>
+      <c r="CJ34" s="31"/>
+      <c r="CK34" s="31"/>
+      <c r="CL34" s="31"/>
+      <c r="CM34" s="31"/>
+      <c r="CN34" s="31"/>
+      <c r="CO34" s="31"/>
+      <c r="CP34" s="31"/>
+      <c r="CQ34" s="31"/>
+      <c r="CR34" s="31"/>
+      <c r="CS34" s="31"/>
+      <c r="CT34" s="31"/>
+      <c r="CU34" s="31"/>
+      <c r="CV34" s="31"/>
+      <c r="CW34" s="31"/>
+      <c r="CX34" s="31"/>
+      <c r="CY34" s="31"/>
+      <c r="CZ34" s="133"/>
+      <c r="DA34" s="31"/>
+      <c r="DB34" s="31"/>
+    </row>
+    <row r="35" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95">
+        <v>1</v>
+      </c>
+      <c r="E35" s="96">
+        <v>45604</v>
+      </c>
+      <c r="F35" s="96">
+        <v>45618</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14">
+        <f t="shared" si="39"/>
+        <v>15</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ35" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA35" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB35" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC35" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD35" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE35" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="31"/>
+      <c r="BJ35" s="31"/>
+      <c r="BK35" s="31"/>
+      <c r="BL35" s="137"/>
+      <c r="BM35" s="31"/>
+      <c r="BN35" s="31"/>
+      <c r="BO35" s="31"/>
+      <c r="BP35" s="31"/>
+      <c r="BQ35" s="31"/>
+      <c r="BR35" s="31"/>
+      <c r="BS35" s="31"/>
+      <c r="BT35" s="31"/>
+      <c r="BU35" s="31"/>
+      <c r="BV35" s="31"/>
+      <c r="BW35" s="31"/>
+      <c r="BX35" s="31"/>
+      <c r="BY35" s="31"/>
+      <c r="BZ35" s="31"/>
+      <c r="CA35" s="31"/>
+      <c r="CB35" s="31"/>
+      <c r="CC35" s="31"/>
+      <c r="CD35" s="31"/>
+      <c r="CE35" s="31"/>
+      <c r="CF35" s="31"/>
+      <c r="CG35" s="31"/>
+      <c r="CH35" s="31"/>
+      <c r="CI35" s="31"/>
+      <c r="CJ35" s="31"/>
+      <c r="CK35" s="31"/>
+      <c r="CL35" s="31"/>
+      <c r="CM35" s="31"/>
+      <c r="CN35" s="31"/>
+      <c r="CO35" s="31"/>
+      <c r="CP35" s="31"/>
+      <c r="CQ35" s="31"/>
+      <c r="CR35" s="31"/>
+      <c r="CS35" s="31"/>
+      <c r="CT35" s="31"/>
+      <c r="CU35" s="31"/>
+      <c r="CV35" s="31"/>
+      <c r="CW35" s="31"/>
+      <c r="CX35" s="31"/>
+      <c r="CY35" s="31"/>
+      <c r="CZ35" s="133"/>
+      <c r="DA35" s="31"/>
+      <c r="DB35" s="31"/>
+    </row>
+    <row r="36" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="97"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="31"/>
+      <c r="AQ36" s="31"/>
+      <c r="AR36" s="31"/>
+      <c r="AS36" s="31"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
+      <c r="AV36" s="31"/>
+      <c r="AW36" s="31"/>
+      <c r="AX36" s="31"/>
+      <c r="AY36" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ36" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA36" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB36" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC36" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD36" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE36" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF36" s="31"/>
+      <c r="BG36" s="31"/>
+      <c r="BH36" s="31"/>
+      <c r="BI36" s="31"/>
+      <c r="BJ36" s="31"/>
+      <c r="BK36" s="31"/>
+      <c r="BL36" s="31"/>
+      <c r="BM36" s="31"/>
+      <c r="BN36" s="31"/>
+      <c r="BO36" s="31"/>
+      <c r="BP36" s="31"/>
+      <c r="BQ36" s="31"/>
+      <c r="BR36" s="31"/>
+      <c r="BS36" s="31"/>
+      <c r="BT36" s="31"/>
+      <c r="BU36" s="31"/>
+      <c r="BV36" s="31"/>
+      <c r="BW36" s="31"/>
+      <c r="BX36" s="31"/>
+      <c r="BY36" s="31"/>
+      <c r="BZ36" s="31"/>
+      <c r="CA36" s="31"/>
+      <c r="CB36" s="31"/>
+      <c r="CC36" s="31"/>
+      <c r="CD36" s="31"/>
+      <c r="CE36" s="31"/>
+      <c r="CF36" s="31"/>
+      <c r="CG36" s="31"/>
+      <c r="CH36" s="31"/>
+      <c r="CI36" s="31"/>
+      <c r="CJ36" s="31"/>
+      <c r="CK36" s="31"/>
+      <c r="CL36" s="31"/>
+      <c r="CM36" s="31"/>
+      <c r="CN36" s="31"/>
+      <c r="CO36" s="31"/>
+      <c r="CP36" s="31"/>
+      <c r="CQ36" s="31"/>
+      <c r="CR36" s="31"/>
+      <c r="CS36" s="31"/>
+      <c r="CT36" s="31"/>
+      <c r="CU36" s="31"/>
+      <c r="CV36" s="31"/>
+      <c r="CW36" s="31"/>
+      <c r="CX36" s="31"/>
+      <c r="CY36" s="31"/>
+      <c r="CZ36" s="133"/>
+      <c r="DA36" s="31"/>
+      <c r="DB36" s="31"/>
+    </row>
+    <row r="37" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="103"/>
+      <c r="D37" s="104">
+        <v>1</v>
+      </c>
+      <c r="E37" s="105">
+        <v>45592</v>
+      </c>
+      <c r="F37" s="105">
+        <v>45576</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14">
+        <f t="shared" si="39"/>
+        <v>-15</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="134"/>
+      <c r="AI37" s="135"/>
+      <c r="AJ37" s="135"/>
+      <c r="AK37" s="135"/>
+      <c r="AL37" s="135"/>
+      <c r="AM37" s="135"/>
+      <c r="AN37" s="135"/>
+      <c r="AO37" s="135"/>
+      <c r="AP37" s="135"/>
+      <c r="AQ37" s="135"/>
+      <c r="AR37" s="135"/>
+      <c r="AS37" s="135"/>
+      <c r="AT37" s="135"/>
+      <c r="AU37" s="135"/>
+      <c r="AV37" s="136"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ37" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA37" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB37" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC37" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD37" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE37" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+      <c r="BK37" s="31"/>
+      <c r="BL37" s="31"/>
+      <c r="BM37" s="31"/>
+      <c r="BN37" s="31"/>
+      <c r="BO37" s="31"/>
+      <c r="BP37" s="31"/>
+      <c r="BQ37" s="31"/>
+      <c r="BR37" s="31"/>
+      <c r="BS37" s="31"/>
+      <c r="BT37" s="31"/>
+      <c r="BU37" s="31"/>
+      <c r="BV37" s="31"/>
+      <c r="BW37" s="31"/>
+      <c r="BX37" s="31"/>
+      <c r="BY37" s="31"/>
+      <c r="BZ37" s="31"/>
+      <c r="CA37" s="31"/>
+      <c r="CB37" s="31"/>
+      <c r="CC37" s="31"/>
+      <c r="CD37" s="31"/>
+      <c r="CE37" s="31"/>
+      <c r="CF37" s="31"/>
+      <c r="CG37" s="31"/>
+      <c r="CH37" s="31"/>
+      <c r="CI37" s="31"/>
+      <c r="CJ37" s="31"/>
+      <c r="CK37" s="31"/>
+      <c r="CL37" s="31"/>
+      <c r="CM37" s="31"/>
+      <c r="CN37" s="31"/>
+      <c r="CO37" s="31"/>
+      <c r="CP37" s="31"/>
+      <c r="CQ37" s="31"/>
+      <c r="CR37" s="31"/>
+      <c r="CS37" s="31"/>
+      <c r="CT37" s="31"/>
+      <c r="CU37" s="31"/>
+      <c r="CV37" s="31"/>
+      <c r="CW37" s="31"/>
+      <c r="CX37" s="31"/>
+      <c r="CY37" s="31"/>
+      <c r="CZ37" s="133"/>
+      <c r="DA37" s="31"/>
+      <c r="DB37" s="31"/>
+    </row>
+    <row r="38" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="103"/>
+      <c r="D38" s="104">
+        <v>1</v>
+      </c>
+      <c r="E38" s="105">
+        <v>45548</v>
+      </c>
+      <c r="F38" s="105">
+        <v>45555</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ38" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA38" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB38" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC38" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD38" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE38" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
+      <c r="BM38" s="31"/>
+      <c r="BN38" s="31"/>
+      <c r="BO38" s="31"/>
+      <c r="BP38" s="31"/>
+      <c r="BQ38" s="31"/>
+      <c r="BR38" s="31"/>
+      <c r="BS38" s="31"/>
+      <c r="BT38" s="31"/>
+      <c r="BU38" s="31"/>
+      <c r="BV38" s="31"/>
+      <c r="BW38" s="31"/>
+      <c r="BX38" s="31"/>
+      <c r="BY38" s="31"/>
+      <c r="BZ38" s="31"/>
+      <c r="CA38" s="31"/>
+      <c r="CB38" s="31"/>
+      <c r="CC38" s="31"/>
+      <c r="CD38" s="31"/>
+      <c r="CE38" s="31"/>
+      <c r="CF38" s="31"/>
+      <c r="CG38" s="31"/>
+      <c r="CH38" s="31"/>
+      <c r="CI38" s="31"/>
+      <c r="CJ38" s="31"/>
+      <c r="CK38" s="31"/>
+      <c r="CL38" s="31"/>
+      <c r="CM38" s="31"/>
+      <c r="CN38" s="31"/>
+      <c r="CO38" s="31"/>
+      <c r="CP38" s="31"/>
+      <c r="CQ38" s="31"/>
+      <c r="CR38" s="31"/>
+      <c r="CS38" s="31"/>
+      <c r="CT38" s="31"/>
+      <c r="CU38" s="31"/>
+      <c r="CV38" s="31"/>
+      <c r="CW38" s="31"/>
+      <c r="CX38" s="31"/>
+      <c r="CY38" s="31"/>
+      <c r="CZ38" s="133"/>
+      <c r="DA38" s="31"/>
+      <c r="DB38" s="31"/>
+    </row>
+    <row r="39" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="103"/>
+      <c r="D39" s="104">
+        <v>1</v>
+      </c>
+      <c r="E39" s="105">
+        <v>45553</v>
+      </c>
+      <c r="F39" s="105">
+        <v>45557</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ39" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA39" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB39" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC39" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD39" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE39" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF39" s="31"/>
+      <c r="BG39" s="31"/>
+      <c r="BH39" s="31"/>
+      <c r="BI39" s="31"/>
+      <c r="BJ39" s="31"/>
+      <c r="BK39" s="31"/>
+      <c r="BL39" s="31"/>
+      <c r="BM39" s="31"/>
+      <c r="BN39" s="31"/>
+      <c r="BO39" s="31"/>
+      <c r="BP39" s="31"/>
+      <c r="BQ39" s="31"/>
+      <c r="BR39" s="31"/>
+      <c r="BS39" s="31"/>
+      <c r="BT39" s="31"/>
+      <c r="BU39" s="31"/>
+      <c r="BV39" s="31"/>
+      <c r="BW39" s="31"/>
+      <c r="BX39" s="31"/>
+      <c r="BY39" s="31"/>
+      <c r="BZ39" s="31"/>
+      <c r="CA39" s="31"/>
+      <c r="CB39" s="31"/>
+      <c r="CC39" s="31"/>
+      <c r="CD39" s="31"/>
+      <c r="CE39" s="31"/>
+      <c r="CF39" s="31"/>
+      <c r="CG39" s="31"/>
+      <c r="CH39" s="31"/>
+      <c r="CI39" s="31"/>
+      <c r="CJ39" s="31"/>
+      <c r="CK39" s="31"/>
+      <c r="CL39" s="31"/>
+      <c r="CM39" s="31"/>
+      <c r="CN39" s="31"/>
+      <c r="CO39" s="31"/>
+      <c r="CP39" s="31"/>
+      <c r="CQ39" s="31"/>
+      <c r="CR39" s="31"/>
+      <c r="CS39" s="31"/>
+      <c r="CT39" s="31"/>
+      <c r="CU39" s="31"/>
+      <c r="CV39" s="31"/>
+      <c r="CW39" s="31"/>
+      <c r="CX39" s="31"/>
+      <c r="CY39" s="31"/>
+      <c r="CZ39" s="133"/>
+      <c r="DA39" s="31"/>
+      <c r="DB39" s="31"/>
+    </row>
+    <row r="40" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="103"/>
+      <c r="D40" s="104">
+        <v>1</v>
+      </c>
+      <c r="E40" s="105">
+        <v>45590</v>
+      </c>
+      <c r="F40" s="105">
+        <v>45605</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14">
+        <f t="shared" si="39"/>
+        <v>16</v>
+      </c>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+      <c r="AW40" s="31"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ40" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA40" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB40" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC40" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD40" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE40" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+      <c r="BO40" s="31"/>
+      <c r="BP40" s="31"/>
+      <c r="BQ40" s="31"/>
+      <c r="BR40" s="31"/>
+      <c r="BS40" s="31"/>
+      <c r="BT40" s="31"/>
+      <c r="BU40" s="31"/>
+      <c r="BV40" s="31"/>
+      <c r="BW40" s="31"/>
+      <c r="BX40" s="31"/>
+      <c r="BY40" s="31"/>
+      <c r="BZ40" s="31"/>
+      <c r="CA40" s="31"/>
+      <c r="CB40" s="31"/>
+      <c r="CC40" s="31"/>
+      <c r="CD40" s="31"/>
+      <c r="CE40" s="31"/>
+      <c r="CF40" s="31"/>
+      <c r="CG40" s="31"/>
+      <c r="CH40" s="31"/>
+      <c r="CI40" s="31"/>
+      <c r="CJ40" s="31"/>
+      <c r="CK40" s="31"/>
+      <c r="CL40" s="31"/>
+      <c r="CM40" s="31"/>
+      <c r="CN40" s="31"/>
+      <c r="CO40" s="31"/>
+      <c r="CP40" s="31"/>
+      <c r="CQ40" s="31"/>
+      <c r="CR40" s="31"/>
+      <c r="CS40" s="31"/>
+      <c r="CT40" s="31"/>
+      <c r="CU40" s="31"/>
+      <c r="CV40" s="31"/>
+      <c r="CW40" s="31"/>
+      <c r="CX40" s="31"/>
+      <c r="CY40" s="31"/>
+      <c r="CZ40" s="133"/>
+      <c r="DA40" s="31"/>
+      <c r="DB40" s="31"/>
+    </row>
+    <row r="41" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="31"/>
+      <c r="AL41" s="31"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="31"/>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="31"/>
+      <c r="AR41" s="31"/>
+      <c r="AS41" s="31"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
+      <c r="AV41" s="31"/>
+      <c r="AW41" s="31"/>
+      <c r="AX41" s="31"/>
+      <c r="AY41" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ41" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA41" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB41" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC41" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD41" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE41" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF41" s="31"/>
+      <c r="BG41" s="31"/>
+      <c r="BH41" s="31"/>
+      <c r="BI41" s="31"/>
+      <c r="BJ41" s="31"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+      <c r="BM41" s="31"/>
+      <c r="BN41" s="31"/>
+      <c r="BO41" s="31"/>
+      <c r="BP41" s="31"/>
+      <c r="BQ41" s="31"/>
+      <c r="BR41" s="31"/>
+      <c r="BS41" s="31"/>
+      <c r="BT41" s="31"/>
+      <c r="BU41" s="31"/>
+      <c r="BV41" s="31"/>
+      <c r="BW41" s="31"/>
+      <c r="BX41" s="31"/>
+      <c r="BY41" s="31"/>
+      <c r="BZ41" s="31"/>
+      <c r="CA41" s="31"/>
+      <c r="CB41" s="31"/>
+      <c r="CC41" s="31"/>
+      <c r="CD41" s="31"/>
+      <c r="CE41" s="31"/>
+      <c r="CF41" s="31"/>
+      <c r="CG41" s="31"/>
+      <c r="CH41" s="31"/>
+      <c r="CI41" s="31"/>
+      <c r="CJ41" s="31"/>
+      <c r="CK41" s="31"/>
+      <c r="CL41" s="31"/>
+      <c r="CM41" s="31"/>
+      <c r="CN41" s="31"/>
+      <c r="CO41" s="31"/>
+      <c r="CP41" s="31"/>
+      <c r="CQ41" s="31"/>
+      <c r="CR41" s="31"/>
+      <c r="CS41" s="31"/>
+      <c r="CT41" s="31"/>
+      <c r="CU41" s="31"/>
+      <c r="CV41" s="31"/>
+      <c r="CW41" s="31"/>
+      <c r="CX41" s="31"/>
+      <c r="CY41" s="31"/>
+      <c r="CZ41" s="133"/>
+      <c r="DA41" s="31"/>
+      <c r="DB41" s="31"/>
+    </row>
+    <row r="42" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113">
+        <v>1</v>
+      </c>
+      <c r="E42" s="114">
+        <v>45590</v>
+      </c>
+      <c r="F42" s="114">
+        <v>45611</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14">
+        <f t="shared" si="39"/>
+        <v>22</v>
+      </c>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
+      <c r="AL42" s="31"/>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+      <c r="AO42" s="31"/>
+      <c r="AP42" s="31"/>
+      <c r="AQ42" s="31"/>
+      <c r="AR42" s="31"/>
+      <c r="AS42" s="31"/>
+      <c r="AT42" s="31"/>
+      <c r="AU42" s="31"/>
+      <c r="AV42" s="31"/>
+      <c r="AW42" s="31"/>
+      <c r="AX42" s="31"/>
+      <c r="AY42" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ42" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA42" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB42" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC42" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD42" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE42" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF42" s="31"/>
+      <c r="BG42" s="31"/>
+      <c r="BH42" s="31"/>
+      <c r="BI42" s="31"/>
+      <c r="BJ42" s="31"/>
+      <c r="BK42" s="31"/>
+      <c r="BL42" s="31"/>
+      <c r="BM42" s="31"/>
+      <c r="BN42" s="31"/>
+      <c r="BO42" s="31"/>
+      <c r="BP42" s="31"/>
+      <c r="BQ42" s="31"/>
+      <c r="BR42" s="31"/>
+      <c r="BS42" s="31"/>
+      <c r="BT42" s="31"/>
+      <c r="BU42" s="31"/>
+      <c r="BV42" s="31"/>
+      <c r="BW42" s="31"/>
+      <c r="BX42" s="31"/>
+      <c r="BY42" s="31"/>
+      <c r="BZ42" s="31"/>
+      <c r="CA42" s="31"/>
+      <c r="CB42" s="31"/>
+      <c r="CC42" s="31"/>
+      <c r="CD42" s="31"/>
+      <c r="CE42" s="31"/>
+      <c r="CF42" s="31"/>
+      <c r="CG42" s="31"/>
+      <c r="CH42" s="31"/>
+      <c r="CI42" s="31"/>
+      <c r="CJ42" s="31"/>
+      <c r="CK42" s="31"/>
+      <c r="CL42" s="31"/>
+      <c r="CM42" s="31"/>
+      <c r="CN42" s="31"/>
+      <c r="CO42" s="31"/>
+      <c r="CP42" s="31"/>
+      <c r="CQ42" s="31"/>
+      <c r="CR42" s="31"/>
+      <c r="CS42" s="31"/>
+      <c r="CT42" s="31"/>
+      <c r="CU42" s="31"/>
+      <c r="CV42" s="31"/>
+      <c r="CW42" s="31"/>
+      <c r="CX42" s="31"/>
+      <c r="CY42" s="31"/>
+      <c r="CZ42" s="133"/>
+      <c r="DA42" s="31"/>
+      <c r="DB42" s="31"/>
+    </row>
+    <row r="43" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="AF43" s="31"/>
+      <c r="AG43" s="31"/>
+      <c r="AH43" s="31"/>
+      <c r="AI43" s="31"/>
+      <c r="AJ43" s="31"/>
+      <c r="AK43" s="31"/>
+      <c r="AL43" s="31"/>
+      <c r="AM43" s="31"/>
+      <c r="AN43" s="31"/>
+      <c r="AO43" s="31"/>
+      <c r="AP43" s="31"/>
+      <c r="AQ43" s="31"/>
+      <c r="AR43" s="31"/>
+      <c r="AS43" s="31"/>
+      <c r="AT43" s="31"/>
+      <c r="AU43" s="31"/>
+      <c r="AV43" s="31"/>
+      <c r="AW43" s="31"/>
+      <c r="AX43" s="31"/>
+      <c r="AY43" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ43" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA43" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB43" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC43" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD43" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE43" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF43" s="31"/>
+      <c r="BG43" s="31"/>
+      <c r="BH43" s="31"/>
+      <c r="BI43" s="31"/>
+      <c r="BJ43" s="31"/>
+      <c r="BK43" s="31"/>
+      <c r="BL43" s="31"/>
+      <c r="BM43" s="31"/>
+      <c r="BN43" s="31"/>
+      <c r="BO43" s="31"/>
+      <c r="BP43" s="31"/>
+      <c r="BQ43" s="31"/>
+      <c r="BR43" s="31"/>
+      <c r="BS43" s="31"/>
+      <c r="BT43" s="31"/>
+      <c r="BU43" s="31"/>
+      <c r="BV43" s="31"/>
+      <c r="BW43" s="31"/>
+      <c r="BX43" s="31"/>
+      <c r="BY43" s="31"/>
+      <c r="BZ43" s="31"/>
+      <c r="CA43" s="31"/>
+      <c r="CB43" s="31"/>
+      <c r="CC43" s="31"/>
+      <c r="CD43" s="31"/>
+      <c r="CE43" s="31"/>
+      <c r="CF43" s="31"/>
+      <c r="CG43" s="31"/>
+      <c r="CH43" s="31"/>
+      <c r="CI43" s="31"/>
+      <c r="CJ43" s="31"/>
+      <c r="CK43" s="31"/>
+      <c r="CL43" s="31"/>
+      <c r="CM43" s="31"/>
+      <c r="CN43" s="31"/>
+      <c r="CO43" s="31"/>
+      <c r="CP43" s="31"/>
+      <c r="CQ43" s="31"/>
+      <c r="CR43" s="31"/>
+      <c r="CS43" s="31"/>
+      <c r="CT43" s="31"/>
+      <c r="CU43" s="31"/>
+      <c r="CV43" s="31"/>
+      <c r="CW43" s="31"/>
+      <c r="CX43" s="31"/>
+      <c r="CY43" s="31"/>
+      <c r="CZ43" s="133"/>
+      <c r="DA43" s="31"/>
+      <c r="DB43" s="31"/>
+    </row>
+    <row r="44" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="112"/>
+      <c r="D44" s="113">
+        <v>0</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
+      <c r="AI44" s="31"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="31"/>
+      <c r="AL44" s="31"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="31"/>
+      <c r="AO44" s="31"/>
+      <c r="AP44" s="31"/>
+      <c r="AQ44" s="31"/>
+      <c r="AR44" s="31"/>
+      <c r="AS44" s="31"/>
+      <c r="AT44" s="31"/>
+      <c r="AU44" s="31"/>
+      <c r="AV44" s="31"/>
+      <c r="AW44" s="31"/>
+      <c r="AX44" s="31"/>
+      <c r="AY44" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ44" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA44" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB44" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC44" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD44" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE44" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF44" s="31"/>
+      <c r="BG44" s="31"/>
+      <c r="BH44" s="31"/>
+      <c r="BI44" s="31"/>
+      <c r="BJ44" s="31"/>
+      <c r="BK44" s="31"/>
+      <c r="BL44" s="31"/>
+      <c r="BM44" s="31"/>
+      <c r="BN44" s="31"/>
+      <c r="BO44" s="31"/>
+      <c r="BP44" s="31"/>
+      <c r="BQ44" s="31"/>
+      <c r="BR44" s="31"/>
+      <c r="BS44" s="31"/>
+      <c r="BT44" s="31"/>
+      <c r="BU44" s="31"/>
+      <c r="BV44" s="31"/>
+      <c r="BW44" s="31"/>
+      <c r="BX44" s="31"/>
+      <c r="BY44" s="31"/>
+      <c r="BZ44" s="31"/>
+      <c r="CA44" s="31"/>
+      <c r="CB44" s="31"/>
+      <c r="CC44" s="31"/>
+      <c r="CD44" s="31"/>
+      <c r="CE44" s="31"/>
+      <c r="CF44" s="31"/>
+      <c r="CG44" s="31"/>
+      <c r="CH44" s="31"/>
+      <c r="CI44" s="31"/>
+      <c r="CJ44" s="31"/>
+      <c r="CK44" s="31"/>
+      <c r="CL44" s="31"/>
+      <c r="CM44" s="31"/>
+      <c r="CN44" s="31"/>
+      <c r="CO44" s="31"/>
+      <c r="CP44" s="31"/>
+      <c r="CQ44" s="31"/>
+      <c r="CR44" s="31"/>
+      <c r="CS44" s="31"/>
+      <c r="CT44" s="31"/>
+      <c r="CU44" s="31"/>
+      <c r="CV44" s="31"/>
+      <c r="CW44" s="31"/>
+      <c r="CX44" s="31"/>
+      <c r="CY44" s="31"/>
+      <c r="CZ44" s="133"/>
+      <c r="DA44" s="31"/>
+      <c r="DB44" s="31"/>
+    </row>
+    <row r="45" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="139"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
+      <c r="AG45" s="31"/>
+      <c r="AH45" s="31"/>
+      <c r="AI45" s="31"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="31"/>
+      <c r="AL45" s="31"/>
+      <c r="AM45" s="31"/>
+      <c r="AN45" s="31"/>
+      <c r="AO45" s="31"/>
+      <c r="AP45" s="31"/>
+      <c r="AQ45" s="31"/>
+      <c r="AR45" s="31"/>
+      <c r="AS45" s="31"/>
+      <c r="AT45" s="31"/>
+      <c r="AU45" s="31"/>
+      <c r="AV45" s="31"/>
+      <c r="AW45" s="31"/>
+      <c r="AX45" s="31"/>
+      <c r="AY45" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ45" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA45" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB45" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC45" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD45" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE45" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF45" s="31"/>
+      <c r="BG45" s="31"/>
+      <c r="BH45" s="31"/>
+      <c r="BI45" s="31"/>
+      <c r="BJ45" s="31"/>
+      <c r="BK45" s="31"/>
+      <c r="BL45" s="31"/>
+      <c r="BM45" s="31"/>
+      <c r="BN45" s="31"/>
+      <c r="BO45" s="31"/>
+      <c r="BP45" s="31"/>
+      <c r="BQ45" s="31"/>
+      <c r="BR45" s="31"/>
+      <c r="BS45" s="31"/>
+      <c r="BT45" s="31"/>
+      <c r="BU45" s="31"/>
+      <c r="BV45" s="31"/>
+      <c r="BW45" s="31"/>
+      <c r="BX45" s="31"/>
+      <c r="BY45" s="31"/>
+      <c r="BZ45" s="31"/>
+      <c r="CA45" s="31"/>
+      <c r="CB45" s="31"/>
+      <c r="CC45" s="31"/>
+      <c r="CD45" s="31"/>
+      <c r="CE45" s="31"/>
+      <c r="CF45" s="31"/>
+      <c r="CG45" s="31"/>
+      <c r="CH45" s="31"/>
+      <c r="CI45" s="31"/>
+      <c r="CJ45" s="31"/>
+      <c r="CK45" s="31"/>
+      <c r="CL45" s="31"/>
+      <c r="CM45" s="31"/>
+      <c r="CN45" s="31"/>
+      <c r="CO45" s="31"/>
+      <c r="CP45" s="31"/>
+      <c r="CQ45" s="31"/>
+      <c r="CR45" s="31"/>
+      <c r="CS45" s="31"/>
+      <c r="CT45" s="31"/>
+      <c r="CU45" s="31"/>
+      <c r="CV45" s="31"/>
+      <c r="CW45" s="31"/>
+      <c r="CX45" s="31"/>
+      <c r="CY45" s="31"/>
+      <c r="CZ45" s="133"/>
+      <c r="DA45" s="31"/>
+      <c r="DB45" s="31"/>
+    </row>
+    <row r="46" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144">
+        <v>1</v>
+      </c>
+      <c r="E46" s="145">
+        <v>45604</v>
+      </c>
+      <c r="F46" s="145">
+        <v>45618</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14">
+        <f t="shared" si="39"/>
+        <v>15</v>
+      </c>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="31"/>
+      <c r="AL46" s="31"/>
+      <c r="AM46" s="31"/>
+      <c r="AN46" s="31"/>
+      <c r="AO46" s="31"/>
+      <c r="AP46" s="31"/>
+      <c r="AQ46" s="31"/>
+      <c r="AR46" s="31"/>
+      <c r="AS46" s="31"/>
+      <c r="AT46" s="31"/>
+      <c r="AU46" s="31"/>
+      <c r="AV46" s="31"/>
+      <c r="AW46" s="31"/>
+      <c r="AX46" s="31"/>
+      <c r="AY46" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ46" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA46" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB46" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC46" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD46" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE46" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF46" s="31"/>
+      <c r="BG46" s="31"/>
+      <c r="BH46" s="31"/>
+      <c r="BI46" s="31"/>
+      <c r="BJ46" s="31"/>
+      <c r="BK46" s="31"/>
+      <c r="BL46" s="31"/>
+      <c r="BM46" s="31"/>
+      <c r="BN46" s="31"/>
+      <c r="BO46" s="31"/>
+      <c r="BP46" s="31"/>
+      <c r="BQ46" s="31"/>
+      <c r="BR46" s="31"/>
+      <c r="BS46" s="31"/>
+      <c r="BT46" s="31"/>
+      <c r="BU46" s="31"/>
+      <c r="BV46" s="31"/>
+      <c r="BW46" s="31"/>
+      <c r="BX46" s="31"/>
+      <c r="BY46" s="31"/>
+      <c r="BZ46" s="31"/>
+      <c r="CA46" s="31"/>
+      <c r="CB46" s="31"/>
+      <c r="CC46" s="31"/>
+      <c r="CD46" s="31"/>
+      <c r="CE46" s="31"/>
+      <c r="CF46" s="31"/>
+      <c r="CG46" s="31"/>
+      <c r="CH46" s="31"/>
+      <c r="CI46" s="31"/>
+      <c r="CJ46" s="31"/>
+      <c r="CK46" s="31"/>
+      <c r="CL46" s="31"/>
+      <c r="CM46" s="31"/>
+      <c r="CN46" s="31"/>
+      <c r="CO46" s="31"/>
+      <c r="CP46" s="31"/>
+      <c r="CQ46" s="31"/>
+      <c r="CR46" s="31"/>
+      <c r="CS46" s="31"/>
+      <c r="CT46" s="31"/>
+      <c r="CU46" s="31"/>
+      <c r="CV46" s="31"/>
+      <c r="CW46" s="31"/>
+      <c r="CX46" s="31"/>
+      <c r="CY46" s="31"/>
+      <c r="CZ46" s="133"/>
+      <c r="DA46" s="31"/>
+      <c r="DB46" s="31"/>
+    </row>
+    <row r="47" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144">
+        <v>1</v>
+      </c>
+      <c r="E47" s="145">
+        <v>45597</v>
+      </c>
+      <c r="F47" s="145">
+        <v>45618</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14">
+        <f t="shared" si="39"/>
+        <v>22</v>
+      </c>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="31"/>
+      <c r="AL47" s="31"/>
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="31"/>
+      <c r="AO47" s="31"/>
+      <c r="AP47" s="31"/>
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="31"/>
+      <c r="AS47" s="31"/>
+      <c r="AT47" s="31"/>
+      <c r="AU47" s="31"/>
+      <c r="AV47" s="31"/>
+      <c r="AW47" s="31"/>
+      <c r="AX47" s="31"/>
+      <c r="AY47" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ47" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA47" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB47" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC47" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD47" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE47" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF47" s="31"/>
+      <c r="BG47" s="31"/>
+      <c r="BH47" s="31"/>
+      <c r="BI47" s="31"/>
+      <c r="BJ47" s="31"/>
+      <c r="BK47" s="31"/>
+      <c r="BL47" s="31"/>
+      <c r="BM47" s="31"/>
+      <c r="BN47" s="31"/>
+      <c r="BO47" s="31"/>
+      <c r="BP47" s="31"/>
+      <c r="BQ47" s="31"/>
+      <c r="BR47" s="31"/>
+      <c r="BS47" s="31"/>
+      <c r="BT47" s="31"/>
+      <c r="BU47" s="31"/>
+      <c r="BV47" s="31"/>
+      <c r="BW47" s="31"/>
+      <c r="BX47" s="31"/>
+      <c r="BY47" s="31"/>
+      <c r="BZ47" s="31"/>
+      <c r="CA47" s="31"/>
+      <c r="CB47" s="31"/>
+      <c r="CC47" s="31"/>
+      <c r="CD47" s="31"/>
+      <c r="CE47" s="31"/>
+      <c r="CF47" s="31"/>
+      <c r="CG47" s="31"/>
+      <c r="CH47" s="31"/>
+      <c r="CI47" s="31"/>
+      <c r="CJ47" s="31"/>
+      <c r="CK47" s="31"/>
+      <c r="CL47" s="31"/>
+      <c r="CM47" s="31"/>
+      <c r="CN47" s="31"/>
+      <c r="CO47" s="31"/>
+      <c r="CP47" s="31"/>
+      <c r="CQ47" s="31"/>
+      <c r="CR47" s="31"/>
+      <c r="CS47" s="31"/>
+      <c r="CT47" s="31"/>
+      <c r="CU47" s="31"/>
+      <c r="CV47" s="31"/>
+      <c r="CW47" s="31"/>
+      <c r="CX47" s="31"/>
+      <c r="CY47" s="31"/>
+      <c r="CZ47" s="133"/>
+      <c r="DA47" s="31"/>
+      <c r="DB47" s="31"/>
+    </row>
+    <row r="48" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144">
+        <v>1</v>
+      </c>
+      <c r="E48" s="145">
+        <v>45618</v>
+      </c>
+      <c r="F48" s="145">
+        <v>45625</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+      <c r="AG48" s="31"/>
+      <c r="AH48" s="31"/>
+      <c r="AI48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="31"/>
+      <c r="AL48" s="31"/>
+      <c r="AM48" s="31"/>
+      <c r="AN48" s="31"/>
+      <c r="AO48" s="31"/>
+      <c r="AP48" s="31"/>
+      <c r="AQ48" s="31"/>
+      <c r="AR48" s="31"/>
+      <c r="AS48" s="31"/>
+      <c r="AT48" s="31"/>
+      <c r="AU48" s="31"/>
+      <c r="AV48" s="31"/>
+      <c r="AW48" s="31"/>
+      <c r="AX48" s="31"/>
+      <c r="AY48" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ48" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA48" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB48" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC48" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD48" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE48" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF48" s="31"/>
+      <c r="BG48" s="31"/>
+      <c r="BH48" s="31"/>
+      <c r="BI48" s="31"/>
+      <c r="BJ48" s="31"/>
+      <c r="BK48" s="31"/>
+      <c r="BL48" s="31"/>
+      <c r="BM48" s="31"/>
+      <c r="BN48" s="31"/>
+      <c r="BO48" s="31"/>
+      <c r="BP48" s="31"/>
+      <c r="BQ48" s="31"/>
+      <c r="BR48" s="31"/>
+      <c r="BS48" s="31"/>
+      <c r="BT48" s="31"/>
+      <c r="BU48" s="31"/>
+      <c r="BV48" s="31"/>
+      <c r="BW48" s="31"/>
+      <c r="BX48" s="31"/>
+      <c r="BY48" s="31"/>
+      <c r="BZ48" s="31"/>
+      <c r="CA48" s="31"/>
+      <c r="CB48" s="31"/>
+      <c r="CC48" s="31"/>
+      <c r="CD48" s="31"/>
+      <c r="CE48" s="31"/>
+      <c r="CF48" s="31"/>
+      <c r="CG48" s="31"/>
+      <c r="CH48" s="31"/>
+      <c r="CI48" s="31"/>
+      <c r="CJ48" s="31"/>
+      <c r="CK48" s="31"/>
+      <c r="CL48" s="31"/>
+      <c r="CM48" s="31"/>
+      <c r="CN48" s="31"/>
+      <c r="CO48" s="31"/>
+      <c r="CP48" s="31"/>
+      <c r="CQ48" s="31"/>
+      <c r="CR48" s="31"/>
+      <c r="CS48" s="31"/>
+      <c r="CT48" s="31"/>
+      <c r="CU48" s="31"/>
+      <c r="CV48" s="31"/>
+      <c r="CW48" s="31"/>
+      <c r="CX48" s="31"/>
+      <c r="CY48" s="31"/>
+      <c r="CZ48" s="133"/>
+      <c r="DA48" s="31"/>
+      <c r="DB48" s="31"/>
+    </row>
+    <row r="49" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="142" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="145">
+        <v>45621</v>
+      </c>
+      <c r="F49" s="145">
+        <v>45627</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14">
+        <f t="shared" si="39"/>
+        <v>7</v>
+      </c>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="31"/>
+      <c r="AG49" s="31"/>
+      <c r="AH49" s="31"/>
+      <c r="AI49" s="31"/>
+      <c r="AJ49" s="31"/>
+      <c r="AK49" s="31"/>
+      <c r="AL49" s="31"/>
+      <c r="AM49" s="31"/>
+      <c r="AN49" s="31"/>
+      <c r="AO49" s="31"/>
+      <c r="AP49" s="31"/>
+      <c r="AQ49" s="31"/>
+      <c r="AR49" s="31"/>
+      <c r="AS49" s="31"/>
+      <c r="AT49" s="31"/>
+      <c r="AU49" s="31"/>
+      <c r="AV49" s="31"/>
+      <c r="AW49" s="31"/>
+      <c r="AX49" s="31"/>
+      <c r="AY49" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ49" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA49" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB49" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC49" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD49" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE49" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF49" s="31"/>
+      <c r="BG49" s="31"/>
+      <c r="BH49" s="31"/>
+      <c r="BI49" s="31"/>
+      <c r="BJ49" s="31"/>
+      <c r="BK49" s="31"/>
+      <c r="BL49" s="31"/>
+      <c r="BM49" s="31"/>
+      <c r="BN49" s="31"/>
+      <c r="BO49" s="31"/>
+      <c r="BP49" s="31"/>
+      <c r="BQ49" s="31"/>
+      <c r="BR49" s="31"/>
+      <c r="BS49" s="31"/>
+      <c r="BT49" s="31"/>
+      <c r="BU49" s="31"/>
+      <c r="BV49" s="31"/>
+      <c r="BW49" s="31"/>
+      <c r="BX49" s="31"/>
+      <c r="BY49" s="31"/>
+      <c r="BZ49" s="31"/>
+      <c r="CA49" s="31"/>
+      <c r="CB49" s="31"/>
+      <c r="CC49" s="31"/>
+      <c r="CD49" s="31"/>
+      <c r="CE49" s="31"/>
+      <c r="CF49" s="31"/>
+      <c r="CG49" s="31"/>
+      <c r="CH49" s="31"/>
+      <c r="CI49" s="31"/>
+      <c r="CJ49" s="31"/>
+      <c r="CK49" s="31"/>
+      <c r="CL49" s="31"/>
+      <c r="CM49" s="31"/>
+      <c r="CN49" s="31"/>
+      <c r="CO49" s="31"/>
+      <c r="CP49" s="31"/>
+      <c r="CQ49" s="31"/>
+      <c r="CR49" s="31"/>
+      <c r="CS49" s="31"/>
+      <c r="CT49" s="31"/>
+      <c r="CU49" s="31"/>
+      <c r="CV49" s="31"/>
+      <c r="CW49" s="31"/>
+      <c r="CX49" s="31"/>
+      <c r="CY49" s="31"/>
+      <c r="CZ49" s="133"/>
+      <c r="DA49" s="31"/>
+      <c r="DB49" s="31"/>
+    </row>
+    <row r="50" spans="1:106" s="128" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="121"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
+      <c r="N50" s="127"/>
+      <c r="O50" s="127"/>
+      <c r="P50" s="127"/>
+      <c r="Q50" s="127"/>
+      <c r="R50" s="127"/>
+      <c r="S50" s="127"/>
+      <c r="T50" s="127"/>
+      <c r="U50" s="127"/>
+      <c r="V50" s="127"/>
+      <c r="W50" s="127"/>
+      <c r="X50" s="127"/>
+      <c r="Y50" s="127"/>
+      <c r="Z50" s="127"/>
+      <c r="AA50" s="127"/>
+      <c r="AB50" s="127"/>
+      <c r="AC50" s="127"/>
+      <c r="AD50" s="127"/>
+      <c r="AE50" s="127"/>
+      <c r="AF50" s="127"/>
+      <c r="AG50" s="127"/>
+      <c r="AH50" s="127"/>
+      <c r="AI50" s="127"/>
+      <c r="AJ50" s="127"/>
+      <c r="AK50" s="127"/>
+      <c r="AL50" s="127"/>
+      <c r="AM50" s="127"/>
+      <c r="AN50" s="127"/>
+      <c r="AO50" s="127"/>
+      <c r="AP50" s="127"/>
+      <c r="AQ50" s="127"/>
+      <c r="AR50" s="127"/>
+      <c r="AS50" s="127"/>
+      <c r="AT50" s="127"/>
+      <c r="AU50" s="127"/>
+      <c r="AV50" s="127"/>
+      <c r="AW50" s="127"/>
+      <c r="AX50" s="127"/>
+      <c r="AY50" s="127"/>
+      <c r="AZ50" s="127"/>
+      <c r="BA50" s="127"/>
+      <c r="BB50" s="127"/>
+      <c r="BC50" s="127"/>
+      <c r="BD50" s="127"/>
+      <c r="BE50" s="127"/>
+      <c r="BF50" s="127"/>
+      <c r="BG50" s="127"/>
+      <c r="BH50" s="127"/>
+      <c r="BI50" s="127"/>
+      <c r="BJ50" s="127"/>
+      <c r="BK50" s="127"/>
+      <c r="BL50" s="127"/>
+      <c r="BM50" s="127"/>
+      <c r="BN50" s="127"/>
+      <c r="BO50" s="127"/>
+      <c r="BP50" s="127"/>
+      <c r="BQ50" s="127"/>
+      <c r="BR50" s="127"/>
+      <c r="BS50" s="127"/>
+      <c r="BT50" s="127"/>
+      <c r="BU50" s="127"/>
+      <c r="BV50" s="127"/>
+      <c r="BW50" s="127"/>
+      <c r="BX50" s="127"/>
+      <c r="BY50" s="127"/>
+      <c r="BZ50" s="127"/>
+      <c r="CA50" s="127"/>
+      <c r="CB50" s="127"/>
+      <c r="CC50" s="127"/>
+      <c r="CD50" s="127"/>
+      <c r="CE50" s="127"/>
+      <c r="CF50" s="127"/>
+      <c r="CG50" s="127"/>
+      <c r="CH50" s="127"/>
+      <c r="CI50" s="127"/>
+      <c r="CJ50" s="127"/>
+      <c r="CK50" s="127"/>
+      <c r="CL50" s="127"/>
+      <c r="CM50" s="127"/>
+      <c r="CN50" s="127"/>
+      <c r="CO50" s="127"/>
+      <c r="CP50" s="127"/>
+      <c r="CQ50" s="127"/>
+      <c r="CR50" s="127"/>
+      <c r="CS50" s="127"/>
+      <c r="CT50" s="127"/>
+      <c r="CU50" s="127"/>
+      <c r="CV50" s="127"/>
+      <c r="CW50" s="127"/>
+      <c r="CX50" s="127"/>
+      <c r="CY50" s="127"/>
+      <c r="CZ50" s="133"/>
+      <c r="DA50" s="127"/>
+      <c r="DB50" s="127"/>
+    </row>
+    <row r="51" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="31"/>
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="31"/>
+      <c r="AL51" s="31"/>
+      <c r="AM51" s="31"/>
+      <c r="AN51" s="31"/>
+      <c r="AO51" s="31"/>
+      <c r="AP51" s="31"/>
+      <c r="AQ51" s="31"/>
+      <c r="AR51" s="31"/>
+      <c r="AS51" s="31"/>
+      <c r="AT51" s="31"/>
+      <c r="AU51" s="31"/>
+      <c r="AV51" s="31"/>
+      <c r="AW51" s="31"/>
+      <c r="AX51" s="31"/>
+      <c r="AY51" s="31"/>
+      <c r="AZ51" s="31"/>
+      <c r="BA51" s="31"/>
+      <c r="BB51" s="31"/>
+      <c r="BC51" s="31"/>
+      <c r="BD51" s="31"/>
+      <c r="BE51" s="31"/>
+      <c r="BF51" s="31"/>
+      <c r="BG51" s="31"/>
+      <c r="BH51" s="31"/>
+      <c r="BI51" s="31"/>
+      <c r="BJ51" s="31"/>
+      <c r="BK51" s="31"/>
+      <c r="BL51" s="31"/>
+      <c r="BM51" s="31"/>
+      <c r="BN51" s="31"/>
+      <c r="BO51" s="31"/>
+      <c r="BP51" s="31"/>
+      <c r="BQ51" s="31"/>
+      <c r="BR51" s="31"/>
+      <c r="BS51" s="31"/>
+      <c r="BT51" s="31"/>
+      <c r="BU51" s="31"/>
+      <c r="BV51" s="31"/>
+      <c r="BW51" s="31"/>
+      <c r="BX51" s="31"/>
+      <c r="BY51" s="31"/>
+      <c r="BZ51" s="31"/>
+      <c r="CA51" s="31"/>
+      <c r="CB51" s="31"/>
+      <c r="CC51" s="31"/>
+      <c r="CD51" s="31"/>
+      <c r="CE51" s="31"/>
+      <c r="CF51" s="31"/>
+      <c r="CG51" s="31"/>
+      <c r="CH51" s="31"/>
+      <c r="CI51" s="31"/>
+      <c r="CJ51" s="31"/>
+      <c r="CK51" s="31"/>
+      <c r="CL51" s="31"/>
+      <c r="CM51" s="31"/>
+      <c r="CN51" s="31"/>
+      <c r="CO51" s="31"/>
+      <c r="CP51" s="31"/>
+      <c r="CQ51" s="31"/>
+      <c r="CR51" s="31"/>
+      <c r="CS51" s="31"/>
+      <c r="CT51" s="31"/>
+      <c r="CU51" s="31"/>
+      <c r="CV51" s="31"/>
+      <c r="CW51" s="31"/>
+      <c r="CX51" s="31"/>
+      <c r="CY51" s="31"/>
+      <c r="CZ51" s="31"/>
+      <c r="DA51" s="31"/>
+      <c r="DB51" s="31"/>
+    </row>
+    <row r="52" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30" t="str">
-        <f t="shared" si="6"/>
+      <c r="B52" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30" t="str">
+        <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="33"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="33"/>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
-      <c r="AX34" s="33"/>
-      <c r="AY34" s="33"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="33"/>
-      <c r="BB34" s="33"/>
-      <c r="BC34" s="33"/>
-      <c r="BD34" s="33"/>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="33"/>
-      <c r="BG34" s="33"/>
-      <c r="BH34" s="33"/>
-      <c r="BI34" s="33"/>
-      <c r="BJ34" s="33"/>
-      <c r="BK34" s="33"/>
-      <c r="BL34" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="33"/>
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="33"/>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="33"/>
+      <c r="AK52" s="33"/>
+      <c r="AL52" s="33"/>
+      <c r="AM52" s="33"/>
+      <c r="AN52" s="33"/>
+      <c r="AO52" s="33"/>
+      <c r="AP52" s="33"/>
+      <c r="AQ52" s="33"/>
+      <c r="AR52" s="33"/>
+      <c r="AS52" s="33"/>
+      <c r="AT52" s="33"/>
+      <c r="AU52" s="33"/>
+      <c r="AV52" s="33"/>
+      <c r="AW52" s="33"/>
+      <c r="AX52" s="33"/>
+      <c r="AY52" s="33"/>
+      <c r="AZ52" s="33"/>
+      <c r="BA52" s="33"/>
+      <c r="BB52" s="33"/>
+      <c r="BC52" s="33"/>
+      <c r="BD52" s="33"/>
+      <c r="BE52" s="33"/>
+      <c r="BF52" s="33"/>
+      <c r="BG52" s="33"/>
+      <c r="BH52" s="33"/>
+      <c r="BI52" s="33"/>
+      <c r="BJ52" s="33"/>
+      <c r="BK52" s="33"/>
+      <c r="BL52" s="33"/>
+      <c r="BM52" s="33"/>
+      <c r="BN52" s="33"/>
+      <c r="BO52" s="33"/>
+      <c r="BP52" s="33"/>
+      <c r="BQ52" s="33"/>
+      <c r="BR52" s="33"/>
+      <c r="BS52" s="33"/>
+      <c r="BT52" s="33"/>
+      <c r="BU52" s="33"/>
+      <c r="BV52" s="33"/>
+      <c r="BW52" s="33"/>
+      <c r="BX52" s="33"/>
+      <c r="BY52" s="33"/>
+      <c r="BZ52" s="33"/>
+      <c r="CA52" s="33"/>
+      <c r="CB52" s="33"/>
+      <c r="CC52" s="33"/>
+      <c r="CD52" s="33"/>
+      <c r="CE52" s="33"/>
+      <c r="CF52" s="33"/>
+      <c r="CG52" s="33"/>
+      <c r="CH52" s="33"/>
+      <c r="CI52" s="33"/>
+      <c r="CJ52" s="33"/>
+      <c r="CK52" s="33"/>
+      <c r="CL52" s="33"/>
+      <c r="CM52" s="33"/>
+      <c r="CN52" s="33"/>
+      <c r="CO52" s="33"/>
+      <c r="CP52" s="33"/>
+      <c r="CQ52" s="33"/>
+      <c r="CR52" s="33"/>
+      <c r="CS52" s="33"/>
+      <c r="CT52" s="33"/>
+      <c r="CU52" s="33"/>
+      <c r="CV52" s="33"/>
+      <c r="CW52" s="33"/>
+      <c r="CX52" s="33"/>
+      <c r="CY52" s="33"/>
+      <c r="CZ52" s="33"/>
+      <c r="DA52" s="33"/>
+      <c r="DB52" s="33"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="6"/>
+    <row r="53" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="6"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="11"/>
-      <c r="F36" s="47"/>
+    <row r="54" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="11"/>
+      <c r="F54" s="47"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="12"/>
+    <row r="55" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
+    <mergeCell ref="AH37:AV37"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -4773,8 +9611,8 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D34">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D7:D52">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4787,17 +9625,134 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I37:AH37 AW37:AX37 I50:BK52 I34:AX36 I38:AX49 AY34:BK49 I5:BK33">
+    <cfRule type="expression" dxfId="29" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL34">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I37:AH37 AW37:AX37 I50:BK52 I34:AX36 I38:AX49 AY34:BK49 I7:BK33">
+    <cfRule type="expression" dxfId="28" priority="54">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="55" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL5:BL52 BS5:BS52">
+    <cfRule type="expression" dxfId="26" priority="62">
+      <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;CH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL7:BL52 BS7:BS52">
+    <cfRule type="expression" dxfId="25" priority="65">
+      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="66" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BL$5,task_start&lt;CH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM5:BR52">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM7:BR52">
+    <cfRule type="expression" dxfId="22" priority="25">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT5:BY52">
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT7:BY52">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA5:CF52">
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;CB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA7:CF52">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>AND(task_start&lt;=CA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CA$5,task_start&lt;CB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH5:CM52">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND(TODAY()&gt;=CH$5,TODAY()&lt;CI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH7:CM52">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND(task_start&lt;=CH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CH$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CH$5,task_start&lt;CI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO5:CT52">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(TODAY()&gt;=CO$5,TODAY()&lt;CP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO7:CT52">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>AND(task_start&lt;=CO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CO$5,task_start&lt;CP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ5:BZ52 CG5:CG52">
+    <cfRule type="expression" dxfId="8" priority="67">
+      <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ7:BZ52 CG7:CG52">
+    <cfRule type="expression" dxfId="7" priority="69">
+      <formula>AND(task_start&lt;=BZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BZ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="70" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BZ$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN5:CN52 CU5:CU52 DB5:DB52">
+    <cfRule type="expression" dxfId="5" priority="73">
+      <formula>AND(TODAY()&gt;=CN$5,TODAY()&lt;DC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN7:CN52 CU7:CU52 DB7:DB52">
+    <cfRule type="expression" dxfId="4" priority="75">
+      <formula>AND(task_start&lt;=CN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="76" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CN$5,task_start&lt;DC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV5:DA52">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=CV$5,TODAY()&lt;CW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV7:DA52">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=CV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CV$5,task_start&lt;CW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4815,9 +9770,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4834,7 +9786,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D34</xm:sqref>
+          <xm:sqref>D7:D52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4857,79 +9809,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="35" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4946,6 +9898,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5233,36 +10214,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5281,24 +10253,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GestionProjet/Gantt.xlsx
+++ b/GestionProjet/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A4A93-93FE-8048-A6FA-C92ADCA01380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6422884C-5CA7-BB47-B3CB-4248A8E2AFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1566,24 +1566,6 @@
     <xf numFmtId="169" fontId="9" fillId="50" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="51" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="51" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1621,6 +1603,33 @@
     <xf numFmtId="0" fontId="0" fillId="52" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="54" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="54" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="54" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="55" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="55" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="55" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="55" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,31 +1639,22 @@
     <xf numFmtId="0" fontId="0" fillId="53" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="54" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="54" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="54" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="55" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="55" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="55" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="55" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,7 +1714,7 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -1725,13 +1725,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1757,11 +1750,27 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1787,11 +1796,27 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1817,11 +1842,27 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1847,11 +1888,34 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1868,32 +1932,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1905,103 +1946,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2111,15 +2055,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="totalRow" dxfId="36"/>
-      <tableStyleElement type="firstColumn" dxfId="35"/>
-      <tableStyleElement type="lastColumn" dxfId="34"/>
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
-      <tableStyleElement type="secondRowStripe" dxfId="32"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="31"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="lastColumn" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2536,9 +2480,9 @@
   </sheetPr>
   <dimension ref="A1:DB55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD51"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="AM1" zoomScale="150" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2590,166 +2534,166 @@
       <c r="B3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="118">
+      <c r="D3" s="144"/>
+      <c r="E3" s="145">
         <v>45541</v>
       </c>
-      <c r="F3" s="118"/>
+      <c r="F3" s="145"/>
     </row>
     <row r="4" spans="1:106" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="120"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="115">
+      <c r="I4" s="140">
         <f>I5</f>
         <v>45537</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="115">
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="140">
         <f>P5</f>
         <v>45544</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="115">
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="140">
         <f>W5</f>
         <v>45551</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="115">
+      <c r="X4" s="141"/>
+      <c r="Y4" s="141"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="140">
         <f>AD5</f>
         <v>45558</v>
       </c>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="115">
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="141"/>
+      <c r="AH4" s="141"/>
+      <c r="AI4" s="141"/>
+      <c r="AJ4" s="142"/>
+      <c r="AK4" s="140">
         <f>AK5</f>
         <v>45565</v>
       </c>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="115">
+      <c r="AL4" s="141"/>
+      <c r="AM4" s="141"/>
+      <c r="AN4" s="141"/>
+      <c r="AO4" s="141"/>
+      <c r="AP4" s="141"/>
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="140">
         <f>AR5</f>
         <v>45572</v>
       </c>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="117"/>
-      <c r="AY4" s="115">
+      <c r="AS4" s="141"/>
+      <c r="AT4" s="141"/>
+      <c r="AU4" s="141"/>
+      <c r="AV4" s="141"/>
+      <c r="AW4" s="141"/>
+      <c r="AX4" s="142"/>
+      <c r="AY4" s="140">
         <f>AY5</f>
         <v>45579</v>
       </c>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="117"/>
-      <c r="BF4" s="115">
+      <c r="AZ4" s="141"/>
+      <c r="BA4" s="141"/>
+      <c r="BB4" s="141"/>
+      <c r="BC4" s="141"/>
+      <c r="BD4" s="141"/>
+      <c r="BE4" s="142"/>
+      <c r="BF4" s="140">
         <f>BF5</f>
         <v>45586</v>
       </c>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="117"/>
-      <c r="BM4" s="115">
+      <c r="BG4" s="141"/>
+      <c r="BH4" s="141"/>
+      <c r="BI4" s="141"/>
+      <c r="BJ4" s="141"/>
+      <c r="BK4" s="141"/>
+      <c r="BL4" s="142"/>
+      <c r="BM4" s="140">
         <f>BM5</f>
         <v>45593</v>
       </c>
-      <c r="BN4" s="116"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="116"/>
-      <c r="BQ4" s="116"/>
-      <c r="BR4" s="116"/>
-      <c r="BS4" s="117"/>
-      <c r="BT4" s="115">
+      <c r="BN4" s="141"/>
+      <c r="BO4" s="141"/>
+      <c r="BP4" s="141"/>
+      <c r="BQ4" s="141"/>
+      <c r="BR4" s="141"/>
+      <c r="BS4" s="142"/>
+      <c r="BT4" s="140">
         <f>BT5</f>
         <v>45600</v>
       </c>
-      <c r="BU4" s="116"/>
-      <c r="BV4" s="116"/>
-      <c r="BW4" s="116"/>
-      <c r="BX4" s="116"/>
-      <c r="BY4" s="116"/>
-      <c r="BZ4" s="117"/>
-      <c r="CA4" s="115">
+      <c r="BU4" s="141"/>
+      <c r="BV4" s="141"/>
+      <c r="BW4" s="141"/>
+      <c r="BX4" s="141"/>
+      <c r="BY4" s="141"/>
+      <c r="BZ4" s="142"/>
+      <c r="CA4" s="140">
         <f>CA5</f>
         <v>45607</v>
       </c>
-      <c r="CB4" s="116"/>
-      <c r="CC4" s="116"/>
-      <c r="CD4" s="116"/>
-      <c r="CE4" s="116"/>
-      <c r="CF4" s="116"/>
-      <c r="CG4" s="117"/>
-      <c r="CH4" s="115">
+      <c r="CB4" s="141"/>
+      <c r="CC4" s="141"/>
+      <c r="CD4" s="141"/>
+      <c r="CE4" s="141"/>
+      <c r="CF4" s="141"/>
+      <c r="CG4" s="142"/>
+      <c r="CH4" s="140">
         <f>CH5</f>
         <v>45614</v>
       </c>
-      <c r="CI4" s="116"/>
-      <c r="CJ4" s="116"/>
-      <c r="CK4" s="116"/>
-      <c r="CL4" s="116"/>
-      <c r="CM4" s="116"/>
-      <c r="CN4" s="117"/>
-      <c r="CO4" s="115">
+      <c r="CI4" s="141"/>
+      <c r="CJ4" s="141"/>
+      <c r="CK4" s="141"/>
+      <c r="CL4" s="141"/>
+      <c r="CM4" s="141"/>
+      <c r="CN4" s="142"/>
+      <c r="CO4" s="140">
         <f>CO5</f>
         <v>45621</v>
       </c>
-      <c r="CP4" s="116"/>
-      <c r="CQ4" s="116"/>
-      <c r="CR4" s="116"/>
-      <c r="CS4" s="116"/>
-      <c r="CT4" s="116"/>
-      <c r="CU4" s="117"/>
-      <c r="CV4" s="115">
+      <c r="CP4" s="141"/>
+      <c r="CQ4" s="141"/>
+      <c r="CR4" s="141"/>
+      <c r="CS4" s="141"/>
+      <c r="CT4" s="141"/>
+      <c r="CU4" s="142"/>
+      <c r="CV4" s="140">
         <f>CV5</f>
         <v>45628</v>
       </c>
-      <c r="CW4" s="116"/>
-      <c r="CX4" s="116"/>
-      <c r="CY4" s="116"/>
-      <c r="CZ4" s="116"/>
-      <c r="DA4" s="116"/>
-      <c r="DB4" s="117"/>
+      <c r="CW4" s="141"/>
+      <c r="CX4" s="141"/>
+      <c r="CY4" s="141"/>
+      <c r="CZ4" s="141"/>
+      <c r="DA4" s="141"/>
+      <c r="DB4" s="142"/>
     </row>
     <row r="5" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
@@ -2929,31 +2873,31 @@
         <f t="shared" si="0"/>
         <v>45578</v>
       </c>
-      <c r="AY5" s="129">
+      <c r="AY5" s="123">
         <f>AX5+1</f>
         <v>45579</v>
       </c>
-      <c r="AZ5" s="130">
+      <c r="AZ5" s="124">
         <f>AY5+1</f>
         <v>45580</v>
       </c>
-      <c r="BA5" s="130">
+      <c r="BA5" s="124">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45581</v>
       </c>
-      <c r="BB5" s="130">
+      <c r="BB5" s="124">
         <f t="shared" si="1"/>
         <v>45582</v>
       </c>
-      <c r="BC5" s="130">
+      <c r="BC5" s="124">
         <f t="shared" si="1"/>
         <v>45583</v>
       </c>
-      <c r="BD5" s="130">
+      <c r="BD5" s="124">
         <f t="shared" si="1"/>
         <v>45584</v>
       </c>
-      <c r="BE5" s="131">
+      <c r="BE5" s="125">
         <f t="shared" si="1"/>
         <v>45585</v>
       </c>
@@ -3141,7 +3085,7 @@
         <f t="shared" ref="CY5" si="29">CX5+1</f>
         <v>45631</v>
       </c>
-      <c r="CZ5" s="130">
+      <c r="CZ5" s="124">
         <f t="shared" ref="CZ5" si="30">CY5+1</f>
         <v>45632</v>
       </c>
@@ -3345,31 +3289,31 @@
         <f t="shared" si="35"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="132" t="str">
+      <c r="AY6" s="126" t="str">
         <f t="shared" si="35"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="132" t="str">
+      <c r="AZ6" s="126" t="str">
         <f t="shared" si="35"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="132" t="str">
+      <c r="BA6" s="126" t="str">
         <f t="shared" si="35"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="132" t="str">
+      <c r="BB6" s="126" t="str">
         <f t="shared" si="35"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="132" t="str">
+      <c r="BC6" s="126" t="str">
         <f t="shared" si="35"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="132" t="str">
+      <c r="BD6" s="126" t="str">
         <f t="shared" si="35"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="132" t="str">
+      <c r="BE6" s="126" t="str">
         <f t="shared" si="35"/>
         <v>S</v>
       </c>
@@ -3557,7 +3501,7 @@
         <f t="shared" si="38"/>
         <v>T</v>
       </c>
-      <c r="CZ6" s="132" t="str">
+      <c r="CZ6" s="126" t="str">
         <f t="shared" si="38"/>
         <v>F</v>
       </c>
@@ -3622,13 +3566,13 @@
       <c r="AV7" s="31"/>
       <c r="AW7" s="31"/>
       <c r="AX7" s="31"/>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="133"/>
-      <c r="BA7" s="133"/>
-      <c r="BB7" s="133"/>
-      <c r="BC7" s="133"/>
-      <c r="BD7" s="133"/>
-      <c r="BE7" s="133"/>
+      <c r="AY7" s="127"/>
+      <c r="AZ7" s="127"/>
+      <c r="BA7" s="127"/>
+      <c r="BB7" s="127"/>
+      <c r="BC7" s="127"/>
+      <c r="BD7" s="127"/>
+      <c r="BE7" s="127"/>
       <c r="BF7" s="31"/>
       <c r="BG7" s="31"/>
       <c r="BH7" s="31"/>
@@ -3675,7 +3619,7 @@
       <c r="CW7" s="31"/>
       <c r="CX7" s="31"/>
       <c r="CY7" s="31"/>
-      <c r="CZ7" s="133"/>
+      <c r="CZ7" s="127"/>
       <c r="DA7" s="31"/>
       <c r="DB7" s="31"/>
     </row>
@@ -3737,25 +3681,25 @@
       <c r="AV8" s="31"/>
       <c r="AW8" s="31"/>
       <c r="AX8" s="31"/>
-      <c r="AY8" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ8" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA8" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB8" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC8" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD8" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE8" s="133" t="s">
+      <c r="AY8" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ8" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA8" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB8" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC8" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD8" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE8" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF8" s="31"/>
@@ -3804,7 +3748,7 @@
       <c r="CW8" s="31"/>
       <c r="CX8" s="31"/>
       <c r="CY8" s="31"/>
-      <c r="CZ8" s="133"/>
+      <c r="CZ8" s="127"/>
       <c r="DA8" s="31"/>
       <c r="DB8" s="31"/>
     </row>
@@ -3874,25 +3818,25 @@
       <c r="AV9" s="31"/>
       <c r="AW9" s="31"/>
       <c r="AX9" s="31"/>
-      <c r="AY9" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ9" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA9" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB9" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC9" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD9" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE9" s="133" t="s">
+      <c r="AY9" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA9" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB9" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC9" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD9" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE9" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF9" s="31"/>
@@ -3941,7 +3885,7 @@
       <c r="CW9" s="31"/>
       <c r="CX9" s="31"/>
       <c r="CY9" s="31"/>
-      <c r="CZ9" s="133"/>
+      <c r="CZ9" s="127"/>
       <c r="DA9" s="31"/>
       <c r="DB9" s="31"/>
     </row>
@@ -4010,25 +3954,25 @@
       <c r="AV10" s="31"/>
       <c r="AW10" s="31"/>
       <c r="AX10" s="31"/>
-      <c r="AY10" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ10" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA10" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB10" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC10" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD10" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE10" s="133" t="s">
+      <c r="AY10" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ10" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA10" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB10" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC10" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD10" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE10" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF10" s="31"/>
@@ -4077,7 +4021,7 @@
       <c r="CW10" s="31"/>
       <c r="CX10" s="31"/>
       <c r="CY10" s="31"/>
-      <c r="CZ10" s="133"/>
+      <c r="CZ10" s="127"/>
       <c r="DA10" s="31"/>
       <c r="DB10" s="31"/>
     </row>
@@ -4144,25 +4088,25 @@
       <c r="AV11" s="31"/>
       <c r="AW11" s="31"/>
       <c r="AX11" s="31"/>
-      <c r="AY11" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ11" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA11" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB11" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC11" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD11" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE11" s="133" t="s">
+      <c r="AY11" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ11" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA11" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB11" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC11" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD11" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE11" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF11" s="31"/>
@@ -4211,7 +4155,7 @@
       <c r="CW11" s="31"/>
       <c r="CX11" s="31"/>
       <c r="CY11" s="31"/>
-      <c r="CZ11" s="133"/>
+      <c r="CZ11" s="127"/>
       <c r="DA11" s="31"/>
       <c r="DB11" s="31"/>
     </row>
@@ -4278,25 +4222,25 @@
       <c r="AV12" s="31"/>
       <c r="AW12" s="31"/>
       <c r="AX12" s="31"/>
-      <c r="AY12" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ12" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA12" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB12" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC12" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD12" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE12" s="133" t="s">
+      <c r="AY12" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ12" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA12" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB12" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC12" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD12" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE12" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF12" s="31"/>
@@ -4345,7 +4289,7 @@
       <c r="CW12" s="31"/>
       <c r="CX12" s="31"/>
       <c r="CY12" s="31"/>
-      <c r="CZ12" s="133"/>
+      <c r="CZ12" s="127"/>
       <c r="DA12" s="31"/>
       <c r="DB12" s="31"/>
     </row>
@@ -4409,25 +4353,25 @@
       <c r="AV13" s="31"/>
       <c r="AW13" s="31"/>
       <c r="AX13" s="31"/>
-      <c r="AY13" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ13" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA13" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB13" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC13" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD13" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE13" s="133" t="s">
+      <c r="AY13" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ13" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA13" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB13" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC13" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD13" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE13" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF13" s="31"/>
@@ -4476,7 +4420,7 @@
       <c r="CW13" s="31"/>
       <c r="CX13" s="31"/>
       <c r="CY13" s="31"/>
-      <c r="CZ13" s="133"/>
+      <c r="CZ13" s="127"/>
       <c r="DA13" s="31"/>
       <c r="DB13" s="31"/>
     </row>
@@ -4538,25 +4482,25 @@
       <c r="AV14" s="31"/>
       <c r="AW14" s="31"/>
       <c r="AX14" s="31"/>
-      <c r="AY14" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ14" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA14" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB14" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC14" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD14" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE14" s="133" t="s">
+      <c r="AY14" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ14" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA14" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB14" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC14" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD14" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE14" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF14" s="31"/>
@@ -4605,7 +4549,7 @@
       <c r="CW14" s="31"/>
       <c r="CX14" s="31"/>
       <c r="CY14" s="31"/>
-      <c r="CZ14" s="133"/>
+      <c r="CZ14" s="127"/>
       <c r="DA14" s="31"/>
       <c r="DB14" s="31"/>
     </row>
@@ -4671,25 +4615,25 @@
       <c r="AV15" s="31"/>
       <c r="AW15" s="31"/>
       <c r="AX15" s="31"/>
-      <c r="AY15" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ15" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA15" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB15" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC15" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD15" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE15" s="133" t="s">
+      <c r="AY15" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ15" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA15" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB15" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC15" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD15" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE15" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF15" s="31"/>
@@ -4738,7 +4682,7 @@
       <c r="CW15" s="31"/>
       <c r="CX15" s="31"/>
       <c r="CY15" s="31"/>
-      <c r="CZ15" s="133"/>
+      <c r="CZ15" s="127"/>
       <c r="DA15" s="31"/>
       <c r="DB15" s="31"/>
     </row>
@@ -4804,25 +4748,25 @@
       <c r="AV16" s="31"/>
       <c r="AW16" s="31"/>
       <c r="AX16" s="31"/>
-      <c r="AY16" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ16" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA16" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB16" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC16" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD16" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE16" s="133" t="s">
+      <c r="AY16" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ16" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA16" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB16" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC16" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD16" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE16" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF16" s="31"/>
@@ -4871,7 +4815,7 @@
       <c r="CW16" s="31"/>
       <c r="CX16" s="31"/>
       <c r="CY16" s="31"/>
-      <c r="CZ16" s="133"/>
+      <c r="CZ16" s="127"/>
       <c r="DA16" s="31"/>
       <c r="DB16" s="31"/>
     </row>
@@ -4937,25 +4881,25 @@
       <c r="AV17" s="31"/>
       <c r="AW17" s="31"/>
       <c r="AX17" s="31"/>
-      <c r="AY17" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ17" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA17" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB17" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC17" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD17" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE17" s="133" t="s">
+      <c r="AY17" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ17" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA17" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB17" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC17" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD17" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE17" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF17" s="31"/>
@@ -5004,7 +4948,7 @@
       <c r="CW17" s="31"/>
       <c r="CX17" s="31"/>
       <c r="CY17" s="31"/>
-      <c r="CZ17" s="133"/>
+      <c r="CZ17" s="127"/>
       <c r="DA17" s="31"/>
       <c r="DB17" s="31"/>
     </row>
@@ -5070,25 +5014,25 @@
       <c r="AV18" s="31"/>
       <c r="AW18" s="31"/>
       <c r="AX18" s="31"/>
-      <c r="AY18" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ18" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA18" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB18" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC18" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD18" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE18" s="133" t="s">
+      <c r="AY18" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ18" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA18" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC18" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD18" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE18" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF18" s="31"/>
@@ -5137,7 +5081,7 @@
       <c r="CW18" s="31"/>
       <c r="CX18" s="31"/>
       <c r="CY18" s="31"/>
-      <c r="CZ18" s="133"/>
+      <c r="CZ18" s="127"/>
       <c r="DA18" s="31"/>
       <c r="DB18" s="31"/>
     </row>
@@ -5199,25 +5143,25 @@
       <c r="AV19" s="31"/>
       <c r="AW19" s="31"/>
       <c r="AX19" s="31"/>
-      <c r="AY19" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ19" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA19" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB19" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC19" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD19" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE19" s="133" t="s">
+      <c r="AY19" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ19" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA19" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB19" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC19" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD19" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE19" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF19" s="31"/>
@@ -5266,7 +5210,7 @@
       <c r="CW19" s="31"/>
       <c r="CX19" s="31"/>
       <c r="CY19" s="31"/>
-      <c r="CZ19" s="133"/>
+      <c r="CZ19" s="127"/>
       <c r="DA19" s="31"/>
       <c r="DB19" s="31"/>
     </row>
@@ -5333,25 +5277,25 @@
       <c r="AV20" s="31"/>
       <c r="AW20" s="31"/>
       <c r="AX20" s="31"/>
-      <c r="AY20" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ20" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA20" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB20" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC20" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD20" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE20" s="133" t="s">
+      <c r="AY20" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ20" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA20" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB20" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC20" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD20" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE20" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF20" s="31"/>
@@ -5400,7 +5344,7 @@
       <c r="CW20" s="31"/>
       <c r="CX20" s="31"/>
       <c r="CY20" s="31"/>
-      <c r="CZ20" s="133"/>
+      <c r="CZ20" s="127"/>
       <c r="DA20" s="31"/>
       <c r="DB20" s="31"/>
     </row>
@@ -5467,25 +5411,25 @@
       <c r="AV21" s="31"/>
       <c r="AW21" s="31"/>
       <c r="AX21" s="31"/>
-      <c r="AY21" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ21" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA21" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB21" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC21" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD21" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE21" s="133" t="s">
+      <c r="AY21" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ21" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA21" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB21" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC21" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD21" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE21" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF21" s="31"/>
@@ -5534,7 +5478,7 @@
       <c r="CW21" s="31"/>
       <c r="CX21" s="31"/>
       <c r="CY21" s="31"/>
-      <c r="CZ21" s="133"/>
+      <c r="CZ21" s="127"/>
       <c r="DA21" s="31"/>
       <c r="DB21" s="31"/>
     </row>
@@ -5601,25 +5545,25 @@
       <c r="AV22" s="31"/>
       <c r="AW22" s="31"/>
       <c r="AX22" s="31"/>
-      <c r="AY22" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ22" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA22" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB22" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC22" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD22" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE22" s="133" t="s">
+      <c r="AY22" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ22" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA22" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB22" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC22" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD22" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE22" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF22" s="31"/>
@@ -5668,7 +5612,7 @@
       <c r="CW22" s="31"/>
       <c r="CX22" s="31"/>
       <c r="CY22" s="31"/>
-      <c r="CZ22" s="133"/>
+      <c r="CZ22" s="127"/>
       <c r="DA22" s="31"/>
       <c r="DB22" s="31"/>
     </row>
@@ -5735,25 +5679,25 @@
       <c r="AV23" s="31"/>
       <c r="AW23" s="31"/>
       <c r="AX23" s="31"/>
-      <c r="AY23" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ23" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA23" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB23" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC23" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD23" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE23" s="133" t="s">
+      <c r="AY23" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ23" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA23" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB23" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC23" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD23" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE23" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF23" s="31"/>
@@ -5802,7 +5746,7 @@
       <c r="CW23" s="31"/>
       <c r="CX23" s="31"/>
       <c r="CY23" s="31"/>
-      <c r="CZ23" s="133"/>
+      <c r="CZ23" s="127"/>
       <c r="DA23" s="31"/>
       <c r="DB23" s="31"/>
     </row>
@@ -5864,25 +5808,25 @@
       <c r="AV24" s="31"/>
       <c r="AW24" s="31"/>
       <c r="AX24" s="31"/>
-      <c r="AY24" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ24" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA24" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB24" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC24" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD24" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE24" s="133" t="s">
+      <c r="AY24" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ24" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA24" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB24" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC24" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD24" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE24" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF24" s="31"/>
@@ -5931,7 +5875,7 @@
       <c r="CW24" s="31"/>
       <c r="CX24" s="31"/>
       <c r="CY24" s="31"/>
-      <c r="CZ24" s="133"/>
+      <c r="CZ24" s="127"/>
       <c r="DA24" s="31"/>
       <c r="DB24" s="31"/>
     </row>
@@ -5997,25 +5941,25 @@
       <c r="AV25" s="31"/>
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
-      <c r="AY25" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ25" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA25" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB25" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC25" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD25" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE25" s="133" t="s">
+      <c r="AY25" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ25" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA25" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB25" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC25" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD25" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE25" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF25" s="31"/>
@@ -6064,7 +6008,7 @@
       <c r="CW25" s="31"/>
       <c r="CX25" s="31"/>
       <c r="CY25" s="31"/>
-      <c r="CZ25" s="133"/>
+      <c r="CZ25" s="127"/>
       <c r="DA25" s="31"/>
       <c r="DB25" s="31"/>
     </row>
@@ -6130,25 +6074,25 @@
       <c r="AV26" s="31"/>
       <c r="AW26" s="31"/>
       <c r="AX26" s="31"/>
-      <c r="AY26" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ26" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA26" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB26" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC26" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD26" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE26" s="133" t="s">
+      <c r="AY26" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ26" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA26" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB26" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC26" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD26" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE26" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF26" s="31"/>
@@ -6197,7 +6141,7 @@
       <c r="CW26" s="31"/>
       <c r="CX26" s="31"/>
       <c r="CY26" s="31"/>
-      <c r="CZ26" s="133"/>
+      <c r="CZ26" s="127"/>
       <c r="DA26" s="31"/>
       <c r="DB26" s="31"/>
     </row>
@@ -6263,25 +6207,25 @@
       <c r="AV27" s="31"/>
       <c r="AW27" s="31"/>
       <c r="AX27" s="31"/>
-      <c r="AY27" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ27" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA27" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB27" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC27" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD27" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE27" s="133" t="s">
+      <c r="AY27" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ27" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA27" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB27" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC27" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD27" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE27" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF27" s="31"/>
@@ -6330,7 +6274,7 @@
       <c r="CW27" s="31"/>
       <c r="CX27" s="31"/>
       <c r="CY27" s="31"/>
-      <c r="CZ27" s="133"/>
+      <c r="CZ27" s="127"/>
       <c r="DA27" s="31"/>
       <c r="DB27" s="31"/>
     </row>
@@ -6396,25 +6340,25 @@
       <c r="AV28" s="31"/>
       <c r="AW28" s="31"/>
       <c r="AX28" s="31"/>
-      <c r="AY28" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ28" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA28" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB28" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC28" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD28" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE28" s="133" t="s">
+      <c r="AY28" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ28" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA28" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB28" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC28" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD28" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE28" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF28" s="31"/>
@@ -6463,7 +6407,7 @@
       <c r="CW28" s="31"/>
       <c r="CX28" s="31"/>
       <c r="CY28" s="31"/>
-      <c r="CZ28" s="133"/>
+      <c r="CZ28" s="127"/>
       <c r="DA28" s="31"/>
       <c r="DB28" s="31"/>
     </row>
@@ -6529,25 +6473,25 @@
       <c r="AV29" s="31"/>
       <c r="AW29" s="31"/>
       <c r="AX29" s="31"/>
-      <c r="AY29" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ29" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA29" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB29" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC29" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD29" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE29" s="133" t="s">
+      <c r="AY29" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ29" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA29" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB29" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC29" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD29" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE29" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF29" s="31"/>
@@ -6596,7 +6540,7 @@
       <c r="CW29" s="31"/>
       <c r="CX29" s="31"/>
       <c r="CY29" s="31"/>
-      <c r="CZ29" s="133"/>
+      <c r="CZ29" s="127"/>
       <c r="DA29" s="31"/>
       <c r="DB29" s="31"/>
     </row>
@@ -6658,25 +6602,25 @@
       <c r="AV30" s="31"/>
       <c r="AW30" s="31"/>
       <c r="AX30" s="31"/>
-      <c r="AY30" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ30" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA30" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB30" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC30" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD30" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE30" s="133" t="s">
+      <c r="AY30" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ30" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA30" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB30" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC30" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD30" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE30" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF30" s="31"/>
@@ -6725,7 +6669,7 @@
       <c r="CW30" s="31"/>
       <c r="CX30" s="31"/>
       <c r="CY30" s="31"/>
-      <c r="CZ30" s="133"/>
+      <c r="CZ30" s="127"/>
       <c r="DA30" s="31"/>
       <c r="DB30" s="31"/>
     </row>
@@ -6791,25 +6735,25 @@
       <c r="AV31" s="31"/>
       <c r="AW31" s="31"/>
       <c r="AX31" s="31"/>
-      <c r="AY31" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ31" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA31" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB31" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC31" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD31" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE31" s="133" t="s">
+      <c r="AY31" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ31" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA31" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB31" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC31" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD31" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE31" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF31" s="31"/>
@@ -6858,7 +6802,7 @@
       <c r="CW31" s="31"/>
       <c r="CX31" s="31"/>
       <c r="CY31" s="31"/>
-      <c r="CZ31" s="133"/>
+      <c r="CZ31" s="127"/>
       <c r="DA31" s="31"/>
       <c r="DB31" s="31"/>
     </row>
@@ -6924,25 +6868,25 @@
       <c r="AV32" s="31"/>
       <c r="AW32" s="31"/>
       <c r="AX32" s="31"/>
-      <c r="AY32" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ32" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA32" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB32" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC32" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD32" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE32" s="133" t="s">
+      <c r="AY32" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ32" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA32" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB32" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC32" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD32" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE32" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF32" s="31"/>
@@ -6991,7 +6935,7 @@
       <c r="CW32" s="31"/>
       <c r="CX32" s="31"/>
       <c r="CY32" s="31"/>
-      <c r="CZ32" s="133"/>
+      <c r="CZ32" s="127"/>
       <c r="DA32" s="31"/>
       <c r="DB32" s="31"/>
     </row>
@@ -7057,25 +7001,25 @@
       <c r="AV33" s="31"/>
       <c r="AW33" s="31"/>
       <c r="AX33" s="31"/>
-      <c r="AY33" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ33" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA33" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB33" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC33" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD33" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE33" s="133" t="s">
+      <c r="AY33" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ33" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA33" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB33" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC33" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD33" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE33" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF33" s="31"/>
@@ -7124,7 +7068,7 @@
       <c r="CW33" s="31"/>
       <c r="CX33" s="31"/>
       <c r="CY33" s="31"/>
-      <c r="CZ33" s="133"/>
+      <c r="CZ33" s="127"/>
       <c r="DA33" s="31"/>
       <c r="DB33" s="31"/>
     </row>
@@ -7190,25 +7134,25 @@
       <c r="AV34" s="31"/>
       <c r="AW34" s="31"/>
       <c r="AX34" s="31"/>
-      <c r="AY34" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ34" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA34" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB34" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC34" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD34" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE34" s="133" t="s">
+      <c r="AY34" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ34" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA34" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB34" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC34" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD34" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE34" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF34" s="31"/>
@@ -7257,7 +7201,7 @@
       <c r="CW34" s="31"/>
       <c r="CX34" s="31"/>
       <c r="CY34" s="31"/>
-      <c r="CZ34" s="133"/>
+      <c r="CZ34" s="127"/>
       <c r="DA34" s="31"/>
       <c r="DB34" s="31"/>
     </row>
@@ -7323,25 +7267,25 @@
       <c r="AV35" s="31"/>
       <c r="AW35" s="31"/>
       <c r="AX35" s="31"/>
-      <c r="AY35" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ35" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA35" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB35" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC35" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD35" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE35" s="133" t="s">
+      <c r="AY35" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ35" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA35" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB35" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC35" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD35" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE35" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF35" s="31"/>
@@ -7350,7 +7294,7 @@
       <c r="BI35" s="31"/>
       <c r="BJ35" s="31"/>
       <c r="BK35" s="31"/>
-      <c r="BL35" s="137"/>
+      <c r="BL35" s="128"/>
       <c r="BM35" s="31"/>
       <c r="BN35" s="31"/>
       <c r="BO35" s="31"/>
@@ -7390,7 +7334,7 @@
       <c r="CW35" s="31"/>
       <c r="CX35" s="31"/>
       <c r="CY35" s="31"/>
-      <c r="CZ35" s="133"/>
+      <c r="CZ35" s="127"/>
       <c r="DA35" s="31"/>
       <c r="DB35" s="31"/>
     </row>
@@ -7452,25 +7396,25 @@
       <c r="AV36" s="31"/>
       <c r="AW36" s="31"/>
       <c r="AX36" s="31"/>
-      <c r="AY36" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ36" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA36" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB36" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC36" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD36" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE36" s="133" t="s">
+      <c r="AY36" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ36" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA36" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB36" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC36" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD36" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE36" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF36" s="31"/>
@@ -7519,7 +7463,7 @@
       <c r="CW36" s="31"/>
       <c r="CX36" s="31"/>
       <c r="CY36" s="31"/>
-      <c r="CZ36" s="133"/>
+      <c r="CZ36" s="127"/>
       <c r="DA36" s="31"/>
       <c r="DB36" s="31"/>
     </row>
@@ -7568,42 +7512,42 @@
       <c r="AE37" s="31"/>
       <c r="AF37" s="31"/>
       <c r="AG37" s="31"/>
-      <c r="AH37" s="134"/>
-      <c r="AI37" s="135"/>
-      <c r="AJ37" s="135"/>
-      <c r="AK37" s="135"/>
-      <c r="AL37" s="135"/>
-      <c r="AM37" s="135"/>
-      <c r="AN37" s="135"/>
-      <c r="AO37" s="135"/>
-      <c r="AP37" s="135"/>
-      <c r="AQ37" s="135"/>
-      <c r="AR37" s="135"/>
-      <c r="AS37" s="135"/>
-      <c r="AT37" s="135"/>
-      <c r="AU37" s="135"/>
-      <c r="AV37" s="136"/>
+      <c r="AH37" s="137"/>
+      <c r="AI37" s="138"/>
+      <c r="AJ37" s="138"/>
+      <c r="AK37" s="138"/>
+      <c r="AL37" s="138"/>
+      <c r="AM37" s="138"/>
+      <c r="AN37" s="138"/>
+      <c r="AO37" s="138"/>
+      <c r="AP37" s="138"/>
+      <c r="AQ37" s="138"/>
+      <c r="AR37" s="138"/>
+      <c r="AS37" s="138"/>
+      <c r="AT37" s="138"/>
+      <c r="AU37" s="138"/>
+      <c r="AV37" s="139"/>
       <c r="AW37" s="31"/>
       <c r="AX37" s="31"/>
-      <c r="AY37" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ37" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA37" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB37" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC37" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD37" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE37" s="133" t="s">
+      <c r="AY37" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ37" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA37" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB37" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC37" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD37" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE37" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF37" s="31"/>
@@ -7652,7 +7596,7 @@
       <c r="CW37" s="31"/>
       <c r="CX37" s="31"/>
       <c r="CY37" s="31"/>
-      <c r="CZ37" s="133"/>
+      <c r="CZ37" s="127"/>
       <c r="DA37" s="31"/>
       <c r="DB37" s="31"/>
     </row>
@@ -7718,25 +7662,25 @@
       <c r="AV38" s="31"/>
       <c r="AW38" s="31"/>
       <c r="AX38" s="31"/>
-      <c r="AY38" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ38" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA38" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB38" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC38" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD38" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE38" s="133" t="s">
+      <c r="AY38" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ38" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA38" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB38" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC38" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD38" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE38" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF38" s="31"/>
@@ -7785,7 +7729,7 @@
       <c r="CW38" s="31"/>
       <c r="CX38" s="31"/>
       <c r="CY38" s="31"/>
-      <c r="CZ38" s="133"/>
+      <c r="CZ38" s="127"/>
       <c r="DA38" s="31"/>
       <c r="DB38" s="31"/>
     </row>
@@ -7851,25 +7795,25 @@
       <c r="AV39" s="31"/>
       <c r="AW39" s="31"/>
       <c r="AX39" s="31"/>
-      <c r="AY39" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ39" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA39" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB39" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC39" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD39" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE39" s="133" t="s">
+      <c r="AY39" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ39" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA39" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB39" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC39" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD39" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE39" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF39" s="31"/>
@@ -7918,7 +7862,7 @@
       <c r="CW39" s="31"/>
       <c r="CX39" s="31"/>
       <c r="CY39" s="31"/>
-      <c r="CZ39" s="133"/>
+      <c r="CZ39" s="127"/>
       <c r="DA39" s="31"/>
       <c r="DB39" s="31"/>
     </row>
@@ -7984,25 +7928,25 @@
       <c r="AV40" s="31"/>
       <c r="AW40" s="31"/>
       <c r="AX40" s="31"/>
-      <c r="AY40" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ40" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA40" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB40" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC40" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD40" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE40" s="133" t="s">
+      <c r="AY40" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ40" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA40" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB40" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC40" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD40" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE40" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF40" s="31"/>
@@ -8051,7 +7995,7 @@
       <c r="CW40" s="31"/>
       <c r="CX40" s="31"/>
       <c r="CY40" s="31"/>
-      <c r="CZ40" s="133"/>
+      <c r="CZ40" s="127"/>
       <c r="DA40" s="31"/>
       <c r="DB40" s="31"/>
     </row>
@@ -8113,25 +8057,25 @@
       <c r="AV41" s="31"/>
       <c r="AW41" s="31"/>
       <c r="AX41" s="31"/>
-      <c r="AY41" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ41" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA41" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB41" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC41" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD41" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE41" s="133" t="s">
+      <c r="AY41" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ41" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA41" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB41" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC41" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD41" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE41" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF41" s="31"/>
@@ -8180,7 +8124,7 @@
       <c r="CW41" s="31"/>
       <c r="CX41" s="31"/>
       <c r="CY41" s="31"/>
-      <c r="CZ41" s="133"/>
+      <c r="CZ41" s="127"/>
       <c r="DA41" s="31"/>
       <c r="DB41" s="31"/>
     </row>
@@ -8246,25 +8190,25 @@
       <c r="AV42" s="31"/>
       <c r="AW42" s="31"/>
       <c r="AX42" s="31"/>
-      <c r="AY42" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ42" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA42" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB42" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC42" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD42" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE42" s="133" t="s">
+      <c r="AY42" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ42" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA42" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB42" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC42" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD42" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE42" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF42" s="31"/>
@@ -8313,7 +8257,7 @@
       <c r="CW42" s="31"/>
       <c r="CX42" s="31"/>
       <c r="CY42" s="31"/>
-      <c r="CZ42" s="133"/>
+      <c r="CZ42" s="127"/>
       <c r="DA42" s="31"/>
       <c r="DB42" s="31"/>
     </row>
@@ -8379,25 +8323,25 @@
       <c r="AV43" s="31"/>
       <c r="AW43" s="31"/>
       <c r="AX43" s="31"/>
-      <c r="AY43" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ43" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA43" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB43" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC43" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD43" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE43" s="133" t="s">
+      <c r="AY43" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ43" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA43" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB43" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC43" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD43" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE43" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF43" s="31"/>
@@ -8446,7 +8390,7 @@
       <c r="CW43" s="31"/>
       <c r="CX43" s="31"/>
       <c r="CY43" s="31"/>
-      <c r="CZ43" s="133"/>
+      <c r="CZ43" s="127"/>
       <c r="DA43" s="31"/>
       <c r="DB43" s="31"/>
     </row>
@@ -8512,25 +8456,25 @@
       <c r="AV44" s="31"/>
       <c r="AW44" s="31"/>
       <c r="AX44" s="31"/>
-      <c r="AY44" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ44" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA44" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB44" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC44" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD44" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE44" s="133" t="s">
+      <c r="AY44" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ44" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA44" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB44" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC44" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD44" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE44" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF44" s="31"/>
@@ -8579,7 +8523,7 @@
       <c r="CW44" s="31"/>
       <c r="CX44" s="31"/>
       <c r="CY44" s="31"/>
-      <c r="CZ44" s="133"/>
+      <c r="CZ44" s="127"/>
       <c r="DA44" s="31"/>
       <c r="DB44" s="31"/>
     </row>
@@ -8587,13 +8531,13 @@
       <c r="A45" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="139"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14" t="str">
         <f t="shared" si="39"/>
@@ -8641,25 +8585,25 @@
       <c r="AV45" s="31"/>
       <c r="AW45" s="31"/>
       <c r="AX45" s="31"/>
-      <c r="AY45" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ45" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA45" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB45" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC45" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD45" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE45" s="133" t="s">
+      <c r="AY45" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ45" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA45" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB45" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC45" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD45" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE45" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF45" s="31"/>
@@ -8708,23 +8652,23 @@
       <c r="CW45" s="31"/>
       <c r="CX45" s="31"/>
       <c r="CY45" s="31"/>
-      <c r="CZ45" s="133"/>
+      <c r="CZ45" s="127"/>
       <c r="DA45" s="31"/>
       <c r="DB45" s="31"/>
     </row>
     <row r="46" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="142" t="s">
+      <c r="B46" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="144">
+      <c r="C46" s="134"/>
+      <c r="D46" s="135">
         <v>1</v>
       </c>
-      <c r="E46" s="145">
+      <c r="E46" s="136">
         <v>45604</v>
       </c>
-      <c r="F46" s="145">
+      <c r="F46" s="136">
         <v>45618</v>
       </c>
       <c r="G46" s="14"/>
@@ -8774,25 +8718,25 @@
       <c r="AV46" s="31"/>
       <c r="AW46" s="31"/>
       <c r="AX46" s="31"/>
-      <c r="AY46" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ46" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA46" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB46" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC46" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD46" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE46" s="133" t="s">
+      <c r="AY46" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ46" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA46" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB46" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC46" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD46" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE46" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF46" s="31"/>
@@ -8841,23 +8785,23 @@
       <c r="CW46" s="31"/>
       <c r="CX46" s="31"/>
       <c r="CY46" s="31"/>
-      <c r="CZ46" s="133"/>
+      <c r="CZ46" s="127"/>
       <c r="DA46" s="31"/>
       <c r="DB46" s="31"/>
     </row>
     <row r="47" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
-      <c r="B47" s="142" t="s">
+      <c r="B47" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="143"/>
-      <c r="D47" s="144">
+      <c r="C47" s="134"/>
+      <c r="D47" s="135">
         <v>1</v>
       </c>
-      <c r="E47" s="145">
+      <c r="E47" s="136">
         <v>45597</v>
       </c>
-      <c r="F47" s="145">
+      <c r="F47" s="136">
         <v>45618</v>
       </c>
       <c r="G47" s="14"/>
@@ -8907,25 +8851,25 @@
       <c r="AV47" s="31"/>
       <c r="AW47" s="31"/>
       <c r="AX47" s="31"/>
-      <c r="AY47" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ47" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA47" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB47" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC47" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD47" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE47" s="133" t="s">
+      <c r="AY47" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ47" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA47" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB47" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC47" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD47" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE47" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF47" s="31"/>
@@ -8974,23 +8918,23 @@
       <c r="CW47" s="31"/>
       <c r="CX47" s="31"/>
       <c r="CY47" s="31"/>
-      <c r="CZ47" s="133"/>
+      <c r="CZ47" s="127"/>
       <c r="DA47" s="31"/>
       <c r="DB47" s="31"/>
     </row>
     <row r="48" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
-      <c r="B48" s="142" t="s">
+      <c r="B48" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="144">
+      <c r="C48" s="134"/>
+      <c r="D48" s="135">
         <v>1</v>
       </c>
-      <c r="E48" s="145">
+      <c r="E48" s="136">
         <v>45618</v>
       </c>
-      <c r="F48" s="145">
+      <c r="F48" s="136">
         <v>45625</v>
       </c>
       <c r="G48" s="14"/>
@@ -9040,25 +8984,25 @@
       <c r="AV48" s="31"/>
       <c r="AW48" s="31"/>
       <c r="AX48" s="31"/>
-      <c r="AY48" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ48" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA48" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB48" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC48" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD48" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE48" s="133" t="s">
+      <c r="AY48" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ48" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA48" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB48" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC48" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD48" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE48" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF48" s="31"/>
@@ -9107,29 +9051,29 @@
       <c r="CW48" s="31"/>
       <c r="CX48" s="31"/>
       <c r="CY48" s="31"/>
-      <c r="CZ48" s="133"/>
+      <c r="CZ48" s="127"/>
       <c r="DA48" s="31"/>
       <c r="DB48" s="31"/>
     </row>
     <row r="49" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="144">
+      <c r="C49" s="134"/>
+      <c r="D49" s="135">
         <v>0.5</v>
       </c>
-      <c r="E49" s="145">
+      <c r="E49" s="136">
         <v>45621</v>
       </c>
-      <c r="F49" s="145">
-        <v>45627</v>
+      <c r="F49" s="136">
+        <v>45631</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14">
         <f t="shared" si="39"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
@@ -9173,25 +9117,25 @@
       <c r="AV49" s="31"/>
       <c r="AW49" s="31"/>
       <c r="AX49" s="31"/>
-      <c r="AY49" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ49" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA49" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BB49" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC49" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD49" s="133" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE49" s="133" t="s">
+      <c r="AY49" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ49" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA49" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB49" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC49" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD49" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE49" s="127" t="s">
         <v>85</v>
       </c>
       <c r="BF49" s="31"/>
@@ -9240,117 +9184,117 @@
       <c r="CW49" s="31"/>
       <c r="CX49" s="31"/>
       <c r="CY49" s="31"/>
-      <c r="CZ49" s="133"/>
+      <c r="CZ49" s="127"/>
       <c r="DA49" s="31"/>
       <c r="DB49" s="31"/>
     </row>
-    <row r="50" spans="1:106" s="128" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="121"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
-      <c r="N50" s="127"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="127"/>
-      <c r="Q50" s="127"/>
-      <c r="R50" s="127"/>
-      <c r="S50" s="127"/>
-      <c r="T50" s="127"/>
-      <c r="U50" s="127"/>
-      <c r="V50" s="127"/>
-      <c r="W50" s="127"/>
-      <c r="X50" s="127"/>
-      <c r="Y50" s="127"/>
-      <c r="Z50" s="127"/>
-      <c r="AA50" s="127"/>
-      <c r="AB50" s="127"/>
-      <c r="AC50" s="127"/>
-      <c r="AD50" s="127"/>
-      <c r="AE50" s="127"/>
-      <c r="AF50" s="127"/>
-      <c r="AG50" s="127"/>
-      <c r="AH50" s="127"/>
-      <c r="AI50" s="127"/>
-      <c r="AJ50" s="127"/>
-      <c r="AK50" s="127"/>
-      <c r="AL50" s="127"/>
-      <c r="AM50" s="127"/>
-      <c r="AN50" s="127"/>
-      <c r="AO50" s="127"/>
-      <c r="AP50" s="127"/>
-      <c r="AQ50" s="127"/>
-      <c r="AR50" s="127"/>
-      <c r="AS50" s="127"/>
-      <c r="AT50" s="127"/>
-      <c r="AU50" s="127"/>
-      <c r="AV50" s="127"/>
-      <c r="AW50" s="127"/>
-      <c r="AX50" s="127"/>
-      <c r="AY50" s="127"/>
-      <c r="AZ50" s="127"/>
-      <c r="BA50" s="127"/>
-      <c r="BB50" s="127"/>
-      <c r="BC50" s="127"/>
-      <c r="BD50" s="127"/>
-      <c r="BE50" s="127"/>
-      <c r="BF50" s="127"/>
-      <c r="BG50" s="127"/>
-      <c r="BH50" s="127"/>
-      <c r="BI50" s="127"/>
-      <c r="BJ50" s="127"/>
-      <c r="BK50" s="127"/>
-      <c r="BL50" s="127"/>
-      <c r="BM50" s="127"/>
-      <c r="BN50" s="127"/>
-      <c r="BO50" s="127"/>
-      <c r="BP50" s="127"/>
-      <c r="BQ50" s="127"/>
-      <c r="BR50" s="127"/>
-      <c r="BS50" s="127"/>
-      <c r="BT50" s="127"/>
-      <c r="BU50" s="127"/>
-      <c r="BV50" s="127"/>
-      <c r="BW50" s="127"/>
-      <c r="BX50" s="127"/>
-      <c r="BY50" s="127"/>
-      <c r="BZ50" s="127"/>
-      <c r="CA50" s="127"/>
-      <c r="CB50" s="127"/>
-      <c r="CC50" s="127"/>
-      <c r="CD50" s="127"/>
-      <c r="CE50" s="127"/>
-      <c r="CF50" s="127"/>
-      <c r="CG50" s="127"/>
-      <c r="CH50" s="127"/>
-      <c r="CI50" s="127"/>
-      <c r="CJ50" s="127"/>
-      <c r="CK50" s="127"/>
-      <c r="CL50" s="127"/>
-      <c r="CM50" s="127"/>
-      <c r="CN50" s="127"/>
-      <c r="CO50" s="127"/>
-      <c r="CP50" s="127"/>
-      <c r="CQ50" s="127"/>
-      <c r="CR50" s="127"/>
-      <c r="CS50" s="127"/>
-      <c r="CT50" s="127"/>
-      <c r="CU50" s="127"/>
-      <c r="CV50" s="127"/>
-      <c r="CW50" s="127"/>
-      <c r="CX50" s="127"/>
-      <c r="CY50" s="127"/>
-      <c r="CZ50" s="133"/>
-      <c r="DA50" s="127"/>
-      <c r="DB50" s="127"/>
+    <row r="50" spans="1:106" s="122" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="121"/>
+      <c r="S50" s="121"/>
+      <c r="T50" s="121"/>
+      <c r="U50" s="121"/>
+      <c r="V50" s="121"/>
+      <c r="W50" s="121"/>
+      <c r="X50" s="121"/>
+      <c r="Y50" s="121"/>
+      <c r="Z50" s="121"/>
+      <c r="AA50" s="121"/>
+      <c r="AB50" s="121"/>
+      <c r="AC50" s="121"/>
+      <c r="AD50" s="121"/>
+      <c r="AE50" s="121"/>
+      <c r="AF50" s="121"/>
+      <c r="AG50" s="121"/>
+      <c r="AH50" s="121"/>
+      <c r="AI50" s="121"/>
+      <c r="AJ50" s="121"/>
+      <c r="AK50" s="121"/>
+      <c r="AL50" s="121"/>
+      <c r="AM50" s="121"/>
+      <c r="AN50" s="121"/>
+      <c r="AO50" s="121"/>
+      <c r="AP50" s="121"/>
+      <c r="AQ50" s="121"/>
+      <c r="AR50" s="121"/>
+      <c r="AS50" s="121"/>
+      <c r="AT50" s="121"/>
+      <c r="AU50" s="121"/>
+      <c r="AV50" s="121"/>
+      <c r="AW50" s="121"/>
+      <c r="AX50" s="121"/>
+      <c r="AY50" s="121"/>
+      <c r="AZ50" s="121"/>
+      <c r="BA50" s="121"/>
+      <c r="BB50" s="121"/>
+      <c r="BC50" s="121"/>
+      <c r="BD50" s="121"/>
+      <c r="BE50" s="121"/>
+      <c r="BF50" s="121"/>
+      <c r="BG50" s="121"/>
+      <c r="BH50" s="121"/>
+      <c r="BI50" s="121"/>
+      <c r="BJ50" s="121"/>
+      <c r="BK50" s="121"/>
+      <c r="BL50" s="121"/>
+      <c r="BM50" s="121"/>
+      <c r="BN50" s="121"/>
+      <c r="BO50" s="121"/>
+      <c r="BP50" s="121"/>
+      <c r="BQ50" s="121"/>
+      <c r="BR50" s="121"/>
+      <c r="BS50" s="121"/>
+      <c r="BT50" s="121"/>
+      <c r="BU50" s="121"/>
+      <c r="BV50" s="121"/>
+      <c r="BW50" s="121"/>
+      <c r="BX50" s="121"/>
+      <c r="BY50" s="121"/>
+      <c r="BZ50" s="121"/>
+      <c r="CA50" s="121"/>
+      <c r="CB50" s="121"/>
+      <c r="CC50" s="121"/>
+      <c r="CD50" s="121"/>
+      <c r="CE50" s="121"/>
+      <c r="CF50" s="121"/>
+      <c r="CG50" s="121"/>
+      <c r="CH50" s="121"/>
+      <c r="CI50" s="121"/>
+      <c r="CJ50" s="121"/>
+      <c r="CK50" s="121"/>
+      <c r="CL50" s="121"/>
+      <c r="CM50" s="121"/>
+      <c r="CN50" s="121"/>
+      <c r="CO50" s="121"/>
+      <c r="CP50" s="121"/>
+      <c r="CQ50" s="121"/>
+      <c r="CR50" s="121"/>
+      <c r="CS50" s="121"/>
+      <c r="CT50" s="121"/>
+      <c r="CU50" s="121"/>
+      <c r="CV50" s="121"/>
+      <c r="CW50" s="121"/>
+      <c r="CX50" s="121"/>
+      <c r="CY50" s="121"/>
+      <c r="CZ50" s="127"/>
+      <c r="DA50" s="121"/>
+      <c r="DB50" s="121"/>
     </row>
     <row r="51" spans="1:106" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
@@ -9592,6 +9536,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="AH37:AV37"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="BT4:BZ4"/>
@@ -9599,17 +9553,7 @@
     <mergeCell ref="CH4:CN4"/>
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D52">
     <cfRule type="dataBar" priority="41">
@@ -9625,108 +9569,82 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:AH37 AW37:AX37 I50:BK52 I34:AX36 I38:AX49 AY34:BK49 I5:BK33">
-    <cfRule type="expression" dxfId="29" priority="60">
+  <conditionalFormatting sqref="I5:BK33 I34:AX36 AY34:BK49 I37:AH37 AW37:AX37 I38:AX49 I50:BK52">
+    <cfRule type="expression" dxfId="21" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:AH37 AW37:AX37 I50:BK52 I34:AX36 I38:AX49 AY34:BK49 I7:BK33">
-    <cfRule type="expression" dxfId="28" priority="54">
+  <conditionalFormatting sqref="I7:BK33 I34:AX36 AY34:BK49 I37:AH37 AW37:AX37 I38:AX49 I50:BK52">
+    <cfRule type="expression" dxfId="20" priority="55" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="54">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="55" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL5:BL52 BS5:BS52">
-    <cfRule type="expression" dxfId="26" priority="62">
+    <cfRule type="expression" dxfId="18" priority="62">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;CH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL7:BL52 BS7:BS52">
-    <cfRule type="expression" dxfId="25" priority="65">
-      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="66" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;CH$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BL7:DB52">
+    <cfRule type="expression" dxfId="16" priority="1">
+      <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BM5:BR52">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>AND(TODAY()&gt;=BM$5,TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM7:BR52">
-    <cfRule type="expression" dxfId="22" priority="25">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT5:BY52">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>AND(TODAY()&gt;=BT$5,TODAY()&lt;BU$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT7:BY52">
-    <cfRule type="expression" dxfId="19" priority="22">
-      <formula>AND(task_start&lt;=BT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BT$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=BT$5,task_start&lt;BU$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BZ5:BZ52 CG5:CG52">
+    <cfRule type="expression" dxfId="11" priority="67">
+      <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ7:BZ52 CG7:CG52">
+    <cfRule type="expression" dxfId="10" priority="70" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BZ$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CF52">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA7:CF52">
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>AND(task_start&lt;=CA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=CA$5,task_start&lt;CB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH5:CM52">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>AND(TODAY()&gt;=CH$5,TODAY()&lt;CI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH7:CM52">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>AND(task_start&lt;=CH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CH$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=CH$5,task_start&lt;CI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CO5:CT52">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>AND(TODAY()&gt;=CO$5,TODAY()&lt;CP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CO7:CT52">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>AND(task_start&lt;=CO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=CO$5,task_start&lt;CP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ5:BZ52 CG5:CG52">
-    <cfRule type="expression" dxfId="8" priority="67">
-      <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ7:BZ52 CG7:CG52">
-    <cfRule type="expression" dxfId="7" priority="69">
-      <formula>AND(task_start&lt;=BZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BZ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="70" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BZ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN5:CN52 CU5:CU52 DB5:DB52">
@@ -9735,22 +9653,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN7:CN52 CU7:CU52 DB7:DB52">
-    <cfRule type="expression" dxfId="4" priority="75">
-      <formula>AND(task_start&lt;=CN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="76" stopIfTrue="1">
       <formula>AND(task_end&gt;=CN$5,task_start&lt;DC$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="CO5:CT52">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>AND(TODAY()&gt;=CO$5,TODAY()&lt;CP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CO7:CT52">
+    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CO$5,task_start&lt;CP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="CV5:DA52">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(TODAY()&gt;=CV$5,TODAY()&lt;CW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV7:DA52">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=CV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CV$5)</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=CV$5,task_start&lt;CW$5)</formula>
     </cfRule>
@@ -9918,15 +9840,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10214,6 +10127,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -10227,14 +10149,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10253,4 +10167,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>